--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_9_9.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_9_9.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-82505.25779142548</v>
+        <v>-62922.31362287151</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15307689.91082522</v>
+        <v>15666083.54271803</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22704852.42929661</v>
+        <v>22284530.63605469</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3056675.965201589</v>
+        <v>3208904.632396991</v>
       </c>
     </row>
     <row r="11">
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>74.80030455040011</v>
+        <v>58.43709896927</v>
       </c>
       <c r="K11" t="n">
-        <v>70.46480586072633</v>
+        <v>45.94060241807557</v>
       </c>
       <c r="L11" t="n">
-        <v>57.13228571623071</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>37.57934483655106</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>34.40083276460621</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>43.42807408235635</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>65.38007183670243</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>88.63342487673017</v>
+        <v>67.81377078227503</v>
       </c>
       <c r="R11" t="n">
         <v>85.43134583487716</v>
@@ -8766,10 +8768,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>59.99448900991949</v>
+        <v>50.24867586497896</v>
       </c>
       <c r="K12" t="n">
-        <v>38.39792023795113</v>
+        <v>21.74077328296876</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>21.82048350850062</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>55.55545282356709</v>
+        <v>42.38790508806972</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -8848,25 +8850,25 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K13" t="n">
-        <v>60.42909946350711</v>
+        <v>50.38157427046082</v>
       </c>
       <c r="L13" t="n">
-        <v>52.78454267318021</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>52.97980340177091</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>45.27133502328439</v>
+        <v>32.0373763711288</v>
       </c>
       <c r="O13" t="n">
-        <v>58.48650097449923</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>65.68959993062856</v>
+        <v>55.23011048084078</v>
       </c>
       <c r="Q13" t="n">
-        <v>84.9458458910769</v>
+        <v>83.85974807944615</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>74.80030455040011</v>
+        <v>58.43709896927</v>
       </c>
       <c r="K14" t="n">
-        <v>70.46480586072633</v>
+        <v>45.94060241807557</v>
       </c>
       <c r="L14" t="n">
-        <v>57.13228571623071</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>37.57934483655106</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>34.40083276460621</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>43.42807408235635</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>65.38007183670243</v>
+        <v>37.65595906245261</v>
       </c>
       <c r="Q14" t="n">
-        <v>88.63342487673017</v>
+        <v>67.81377078227503</v>
       </c>
       <c r="R14" t="n">
         <v>85.43134583487716</v>
@@ -9003,10 +9005,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>59.99448900991949</v>
+        <v>50.24867586497896</v>
       </c>
       <c r="K15" t="n">
-        <v>38.39792023795113</v>
+        <v>21.74077328296876</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>21.82048350850062</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>55.55545282356709</v>
+        <v>42.38790508806972</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9085,25 +9087,25 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K16" t="n">
-        <v>60.42909946350711</v>
+        <v>50.38157427046082</v>
       </c>
       <c r="L16" t="n">
-        <v>52.78454267318021</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>52.97980340177091</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>45.27133502328439</v>
+        <v>32.0373763711288</v>
       </c>
       <c r="O16" t="n">
-        <v>58.48650097449923</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>65.68959993062856</v>
+        <v>55.23011048084078</v>
       </c>
       <c r="Q16" t="n">
-        <v>84.9458458910769</v>
+        <v>83.85974807944615</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9322,25 +9324,25 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K19" t="n">
-        <v>60.42909946350711</v>
+        <v>50.38157427046082</v>
       </c>
       <c r="L19" t="n">
-        <v>52.78454267318021</v>
+        <v>39.92716966793144</v>
       </c>
       <c r="M19" t="n">
-        <v>52.97980340177091</v>
+        <v>39.423506304455</v>
       </c>
       <c r="N19" t="n">
-        <v>45.27133502328439</v>
+        <v>32.0373763711288</v>
       </c>
       <c r="O19" t="n">
-        <v>58.48650097449923</v>
+        <v>46.26279818095588</v>
       </c>
       <c r="P19" t="n">
-        <v>65.68959993062856</v>
+        <v>55.23011048084078</v>
       </c>
       <c r="Q19" t="n">
-        <v>84.9458458910769</v>
+        <v>83.85974807944615</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9401,7 +9403,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>70.46480586072632</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9410,7 +9412,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>34.40083276460621</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9419,7 +9421,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>88.63342487673017</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>85.43134583487716</v>
@@ -9477,10 +9479,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>59.9944890099195</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>38.39792023795113</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9498,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>55.55545282356709</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>59.17817075471706</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9559,25 +9561,25 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K22" t="n">
-        <v>60.42909946350712</v>
+        <v>50.38157427046082</v>
       </c>
       <c r="L22" t="n">
-        <v>52.78454267318021</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>52.97980340177092</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>45.27133502328439</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>58.48650097449923</v>
+        <v>46.26279818095588</v>
       </c>
       <c r="P22" t="n">
-        <v>65.68959993062856</v>
+        <v>55.23011048084078</v>
       </c>
       <c r="Q22" t="n">
-        <v>84.9458458910769</v>
+        <v>83.85974807944615</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>58.43709896927</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9659,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,10 +9716,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>59.99448900991949</v>
+        <v>50.24867586497896</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>21.74077328296876</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9735,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>42.38790508806972</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9793,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K25" t="n">
-        <v>60.42909946350711</v>
+        <v>50.38157427046082</v>
       </c>
       <c r="L25" t="n">
-        <v>52.78454267318021</v>
+        <v>39.92716966793144</v>
       </c>
       <c r="M25" t="n">
-        <v>52.97980340177091</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>32.0373763711288</v>
       </c>
       <c r="O25" t="n">
-        <v>58.48650097449923</v>
+        <v>46.26279818095588</v>
       </c>
       <c r="P25" t="n">
-        <v>65.68959993062856</v>
+        <v>55.23011048084078</v>
       </c>
       <c r="Q25" t="n">
-        <v>84.9458458910769</v>
+        <v>83.85974807944615</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9951,10 +9953,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>59.99448900991949</v>
+        <v>50.24867586497896</v>
       </c>
       <c r="K27" t="n">
-        <v>38.39792023795113</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9969,10 +9971,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>21.82048350850062</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>55.55545282356709</v>
+        <v>42.38790508806972</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10033,25 +10035,25 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>50.38157427046082</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>39.92716966793144</v>
       </c>
       <c r="M28" t="n">
-        <v>52.97980340177091</v>
+        <v>39.423506304455</v>
       </c>
       <c r="N28" t="n">
-        <v>45.27133502328439</v>
+        <v>32.0373763711288</v>
       </c>
       <c r="O28" t="n">
-        <v>58.48650097449923</v>
+        <v>46.26279818095588</v>
       </c>
       <c r="P28" t="n">
-        <v>65.68959993062856</v>
+        <v>55.23011048084078</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.9458458910769</v>
+        <v>83.85974807944615</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10270,25 +10272,25 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K31" t="n">
-        <v>60.42909946350711</v>
+        <v>50.38157427046082</v>
       </c>
       <c r="L31" t="n">
-        <v>52.78454267318021</v>
+        <v>39.92716966793144</v>
       </c>
       <c r="M31" t="n">
-        <v>52.97980340177091</v>
+        <v>39.423506304455</v>
       </c>
       <c r="N31" t="n">
-        <v>45.27133502328439</v>
+        <v>32.0373763711288</v>
       </c>
       <c r="O31" t="n">
-        <v>58.48650097449923</v>
+        <v>46.26279818095588</v>
       </c>
       <c r="P31" t="n">
-        <v>65.68959993062856</v>
+        <v>55.23011048084078</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.9458458910769</v>
+        <v>83.85974807944615</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10346,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>74.80030455040011</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>70.46480586072633</v>
+        <v>45.94060241807557</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10367,7 +10369,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>88.63342487673017</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>85.43134583487716</v>
@@ -10422,16 +10424,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>13.1634712931604</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>59.99448900991949</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>38.39792023795113</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>13.61350529844596</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,10 +10445,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>21.82048350850062</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>55.55545282356709</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10507,25 +10509,25 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K34" t="n">
-        <v>60.42909946350711</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>52.78454267318021</v>
+        <v>39.92716966793144</v>
       </c>
       <c r="M34" t="n">
-        <v>52.97980340177091</v>
+        <v>39.423506304455</v>
       </c>
       <c r="N34" t="n">
-        <v>45.27133502328439</v>
+        <v>32.0373763711288</v>
       </c>
       <c r="O34" t="n">
-        <v>58.48650097449923</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>65.68959993062856</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>84.9458458910769</v>
+        <v>83.85974807944615</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10583,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>74.80030455040011</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>70.46480586072633</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10604,7 +10606,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>88.63342487673017</v>
+        <v>67.81377078227503</v>
       </c>
       <c r="R35" t="n">
         <v>85.43134583487716</v>
@@ -10662,10 +10664,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>59.99448900991949</v>
+        <v>50.24867586497896</v>
       </c>
       <c r="K36" t="n">
-        <v>38.39792023795113</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10680,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>21.82048350850062</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>55.55545282356709</v>
+        <v>42.38790508806972</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10744,25 +10746,25 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K37" t="n">
-        <v>60.42909946350711</v>
+        <v>50.38157427046082</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>39.92716966793144</v>
       </c>
       <c r="M37" t="n">
-        <v>52.97980340177091</v>
+        <v>39.423506304455</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>32.0373763711288</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>46.26279818095588</v>
       </c>
       <c r="P37" t="n">
-        <v>65.68959993062856</v>
+        <v>55.23011048084078</v>
       </c>
       <c r="Q37" t="n">
-        <v>84.9458458910769</v>
+        <v>83.85974807944615</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10899,10 +10901,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>59.99448900991949</v>
+        <v>50.24867586497897</v>
       </c>
       <c r="K39" t="n">
-        <v>38.39792023795113</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10920,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>55.55545282356709</v>
+        <v>42.38790508806972</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -10981,25 +10983,25 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K40" t="n">
-        <v>60.42909946350711</v>
+        <v>50.38157427046082</v>
       </c>
       <c r="L40" t="n">
-        <v>52.78454267318021</v>
+        <v>39.92716966793145</v>
       </c>
       <c r="M40" t="n">
-        <v>52.97980340177091</v>
+        <v>39.423506304455</v>
       </c>
       <c r="N40" t="n">
-        <v>45.27133502328439</v>
+        <v>32.0373763711288</v>
       </c>
       <c r="O40" t="n">
-        <v>58.48650097449923</v>
+        <v>46.26279818095588</v>
       </c>
       <c r="P40" t="n">
-        <v>65.68959993062856</v>
+        <v>55.23011048084078</v>
       </c>
       <c r="Q40" t="n">
-        <v>84.9458458910769</v>
+        <v>83.85974807944615</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11136,10 +11138,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>59.99448900991949</v>
+        <v>50.24867586497896</v>
       </c>
       <c r="K42" t="n">
-        <v>38.39792023795113</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11157,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>55.55545282356709</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11218,25 +11220,25 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>50.38157427046082</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>39.92716966793144</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>39.423506304455</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>32.0373763711288</v>
       </c>
       <c r="O43" t="n">
-        <v>58.48650097449923</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>84.9458458910769</v>
+        <v>83.85974807944615</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11370,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>13.1634712931604</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>59.99448900991949</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11394,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>55.55545282356709</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -11458,22 +11460,22 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>52.78454267318021</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>52.97980340177091</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>45.27133502328439</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>58.48650097449923</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>65.68959993062856</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>84.9458458910769</v>
+        <v>83.85974807944615</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23270,13 +23272,13 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G11" t="n">
-        <v>411.0910991671059</v>
+        <v>410.8983045093804</v>
       </c>
       <c r="H11" t="n">
-        <v>320.7690783136127</v>
+        <v>318.7946200251814</v>
       </c>
       <c r="I11" t="n">
-        <v>138.2481755487984</v>
+        <v>130.8154595068359</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23285,34 +23287,34 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>26.70784276721304</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>3.726289893207451</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>10.94434319550814</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>37.65595906245261</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>36.22203728504044</v>
+        <v>24.11139986669068</v>
       </c>
       <c r="S11" t="n">
-        <v>165.9452104078107</v>
+        <v>161.5519021448908</v>
       </c>
       <c r="T11" t="n">
-        <v>218.3863943170558</v>
+        <v>217.5424357028624</v>
       </c>
       <c r="U11" t="n">
-        <v>252.2683351220861</v>
+        <v>252.252911549468</v>
       </c>
       <c r="V11" t="n">
         <v>333.6094813630181</v>
@@ -23349,13 +23351,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G12" t="n">
-        <v>126.9854363758741</v>
+        <v>126.8822821399033</v>
       </c>
       <c r="H12" t="n">
-        <v>94.5366171262896</v>
+        <v>93.5403643736245</v>
       </c>
       <c r="I12" t="n">
-        <v>52.00608518301455</v>
+        <v>48.45450293577519</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23364,7 +23366,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>13.61350529844596</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -23373,25 +23375,25 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>7.418125047647706</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>2.122548746678021</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>30.88817237036449</v>
+        <v>24.48356112298609</v>
       </c>
       <c r="S12" t="n">
-        <v>142.8056045053299</v>
+        <v>140.8895598152587</v>
       </c>
       <c r="T12" t="n">
-        <v>184.9611451887135</v>
+        <v>184.5453612288137</v>
       </c>
       <c r="U12" t="n">
-        <v>216.2798590433917</v>
+        <v>216.2730725804989</v>
       </c>
       <c r="V12" t="n">
         <v>226.1116663261494</v>
@@ -23428,49 +23430,49 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G13" t="n">
-        <v>166.8484416772834</v>
+        <v>166.7619606310209</v>
       </c>
       <c r="H13" t="n">
-        <v>154.3816182209092</v>
+        <v>153.6127231005024</v>
       </c>
       <c r="I13" t="n">
-        <v>131.269940117466</v>
+        <v>128.6692191989529</v>
       </c>
       <c r="J13" t="n">
-        <v>32.44152677383354</v>
+        <v>26.32731680307289</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>39.92716966793144</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>39.423506304455</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>46.26279818095588</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>6.155510525861384</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>130.8455323770033</v>
+        <v>126.9570300605083</v>
       </c>
       <c r="S13" t="n">
-        <v>204.9135390503414</v>
+        <v>203.4064102713844</v>
       </c>
       <c r="T13" t="n">
-        <v>229.2145141050582</v>
+        <v>228.8450041801183</v>
       </c>
       <c r="U13" t="n">
-        <v>284.2974947811432</v>
+        <v>284.2927776331653</v>
       </c>
       <c r="V13" t="n">
         <v>258.1279513971616</v>
@@ -23507,13 +23509,13 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G14" t="n">
-        <v>411.0910991671059</v>
+        <v>410.8983045093804</v>
       </c>
       <c r="H14" t="n">
-        <v>320.7690783136127</v>
+        <v>318.7946200251814</v>
       </c>
       <c r="I14" t="n">
-        <v>138.2481755487984</v>
+        <v>130.8154595068359</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23522,16 +23524,16 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>26.70784276721304</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>3.726289893207451</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>10.94434319550814</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -23540,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>36.22203728504044</v>
+        <v>24.11139986669068</v>
       </c>
       <c r="S14" t="n">
-        <v>165.9452104078107</v>
+        <v>161.5519021448908</v>
       </c>
       <c r="T14" t="n">
-        <v>218.3863943170558</v>
+        <v>217.5424357028624</v>
       </c>
       <c r="U14" t="n">
-        <v>252.2683351220861</v>
+        <v>252.252911549468</v>
       </c>
       <c r="V14" t="n">
         <v>333.6094813630181</v>
@@ -23586,13 +23588,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G15" t="n">
-        <v>126.9854363758741</v>
+        <v>126.8822821399033</v>
       </c>
       <c r="H15" t="n">
-        <v>94.5366171262896</v>
+        <v>93.5403643736245</v>
       </c>
       <c r="I15" t="n">
-        <v>52.00608518301455</v>
+        <v>48.45450293577519</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23601,7 +23603,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>13.61350529844596</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -23610,25 +23612,25 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>7.418125047647706</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>2.122548746678021</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>30.88817237036449</v>
+        <v>24.48356112298609</v>
       </c>
       <c r="S15" t="n">
-        <v>142.8056045053299</v>
+        <v>140.8895598152587</v>
       </c>
       <c r="T15" t="n">
-        <v>184.9611451887135</v>
+        <v>184.5453612288137</v>
       </c>
       <c r="U15" t="n">
-        <v>216.2798590433917</v>
+        <v>216.2730725804989</v>
       </c>
       <c r="V15" t="n">
         <v>226.1116663261494</v>
@@ -23665,49 +23667,49 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G16" t="n">
-        <v>166.8484416772834</v>
+        <v>166.7619606310209</v>
       </c>
       <c r="H16" t="n">
-        <v>154.3816182209092</v>
+        <v>153.6127231005024</v>
       </c>
       <c r="I16" t="n">
-        <v>131.269940117466</v>
+        <v>128.6692191989529</v>
       </c>
       <c r="J16" t="n">
-        <v>32.44152677383354</v>
+        <v>26.32731680307289</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>39.92716966793144</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>39.423506304455</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>46.26279818095588</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>6.155510525861384</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>130.8455323770033</v>
+        <v>126.9570300605083</v>
       </c>
       <c r="S16" t="n">
-        <v>204.9135390503414</v>
+        <v>203.4064102713844</v>
       </c>
       <c r="T16" t="n">
-        <v>229.2145141050582</v>
+        <v>228.8450041801183</v>
       </c>
       <c r="U16" t="n">
-        <v>284.2974947811432</v>
+        <v>284.2927776331653</v>
       </c>
       <c r="V16" t="n">
         <v>258.1279513971616</v>
@@ -23744,49 +23746,49 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G17" t="n">
-        <v>411.0910991671059</v>
+        <v>410.8983045093804</v>
       </c>
       <c r="H17" t="n">
-        <v>320.7690783136127</v>
+        <v>318.7946200251814</v>
       </c>
       <c r="I17" t="n">
-        <v>138.2481755487984</v>
+        <v>130.8154595068359</v>
       </c>
       <c r="J17" t="n">
-        <v>74.80030455040011</v>
+        <v>58.43709896927</v>
       </c>
       <c r="K17" t="n">
-        <v>70.46480586072633</v>
+        <v>45.94060241807557</v>
       </c>
       <c r="L17" t="n">
-        <v>57.13228571623071</v>
+        <v>26.70784276721304</v>
       </c>
       <c r="M17" t="n">
-        <v>37.57934483655106</v>
+        <v>3.726289893207451</v>
       </c>
       <c r="N17" t="n">
-        <v>34.40083276460621</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>43.42807408235635</v>
+        <v>10.94434319550814</v>
       </c>
       <c r="P17" t="n">
-        <v>65.38007183670243</v>
+        <v>37.65595906245261</v>
       </c>
       <c r="Q17" t="n">
-        <v>88.63342487673017</v>
+        <v>67.81377078227503</v>
       </c>
       <c r="R17" t="n">
-        <v>121.6533831199176</v>
+        <v>109.5427457015678</v>
       </c>
       <c r="S17" t="n">
-        <v>165.9452104078107</v>
+        <v>161.5519021448908</v>
       </c>
       <c r="T17" t="n">
-        <v>218.3863943170558</v>
+        <v>217.5424357028624</v>
       </c>
       <c r="U17" t="n">
-        <v>252.2683351220861</v>
+        <v>252.252911549468</v>
       </c>
       <c r="V17" t="n">
         <v>333.6094813630181</v>
@@ -23823,22 +23825,22 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G18" t="n">
-        <v>126.9854363758741</v>
+        <v>126.8822821399033</v>
       </c>
       <c r="H18" t="n">
-        <v>94.5366171262896</v>
+        <v>93.5403643736245</v>
       </c>
       <c r="I18" t="n">
-        <v>65.16955647617495</v>
+        <v>61.61797422893559</v>
       </c>
       <c r="J18" t="n">
-        <v>59.99448900991949</v>
+        <v>50.24867586497896</v>
       </c>
       <c r="K18" t="n">
-        <v>38.39792023795113</v>
+        <v>21.74077328296876</v>
       </c>
       <c r="L18" t="n">
-        <v>13.61350529844596</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -23847,25 +23849,25 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>7.418125047647706</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>21.82048350850062</v>
+        <v>2.122548746678021</v>
       </c>
       <c r="Q18" t="n">
-        <v>55.55545282356709</v>
+        <v>42.38790508806972</v>
       </c>
       <c r="R18" t="n">
-        <v>90.06634312508154</v>
+        <v>83.66173187770315</v>
       </c>
       <c r="S18" t="n">
-        <v>142.8056045053299</v>
+        <v>140.8895598152587</v>
       </c>
       <c r="T18" t="n">
-        <v>184.9611451887135</v>
+        <v>184.5453612288137</v>
       </c>
       <c r="U18" t="n">
-        <v>216.2798590433917</v>
+        <v>216.2730725804989</v>
       </c>
       <c r="V18" t="n">
         <v>226.1116663261494</v>
@@ -23902,16 +23904,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
-        <v>166.8484416772834</v>
+        <v>166.7619606310209</v>
       </c>
       <c r="H19" t="n">
-        <v>154.3816182209092</v>
+        <v>153.6127231005024</v>
       </c>
       <c r="I19" t="n">
-        <v>131.269940117466</v>
+        <v>128.6692191989529</v>
       </c>
       <c r="J19" t="n">
-        <v>32.44152677383354</v>
+        <v>26.32731680307289</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,19 +23934,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>6.155510525861384</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>130.8455323770033</v>
+        <v>126.9570300605083</v>
       </c>
       <c r="S19" t="n">
-        <v>204.9135390503414</v>
+        <v>203.4064102713844</v>
       </c>
       <c r="T19" t="n">
-        <v>229.2145141050582</v>
+        <v>228.8450041801183</v>
       </c>
       <c r="U19" t="n">
-        <v>284.2974947811432</v>
+        <v>284.2927776331653</v>
       </c>
       <c r="V19" t="n">
         <v>258.1279513971616</v>
@@ -23981,49 +23983,49 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G20" t="n">
-        <v>411.0910991671059</v>
+        <v>410.8983045093804</v>
       </c>
       <c r="H20" t="n">
-        <v>320.7690783136127</v>
+        <v>318.7946200251814</v>
       </c>
       <c r="I20" t="n">
-        <v>138.2481755487984</v>
+        <v>130.8154595068359</v>
       </c>
       <c r="J20" t="n">
-        <v>74.8003045504001</v>
+        <v>58.43709896927</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>45.94060241807557</v>
       </c>
       <c r="L20" t="n">
-        <v>57.13228571623071</v>
+        <v>26.70784276721304</v>
       </c>
       <c r="M20" t="n">
-        <v>37.57934483655106</v>
+        <v>3.726289893207451</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>43.42807408235635</v>
+        <v>10.94434319550814</v>
       </c>
       <c r="P20" t="n">
-        <v>65.38007183670243</v>
+        <v>37.65595906245261</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>67.81377078227503</v>
       </c>
       <c r="R20" t="n">
-        <v>36.22203728504045</v>
+        <v>24.11139986669068</v>
       </c>
       <c r="S20" t="n">
-        <v>165.9452104078107</v>
+        <v>161.5519021448908</v>
       </c>
       <c r="T20" t="n">
-        <v>218.3863943170558</v>
+        <v>217.5424357028624</v>
       </c>
       <c r="U20" t="n">
-        <v>252.2683351220861</v>
+        <v>252.252911549468</v>
       </c>
       <c r="V20" t="n">
         <v>333.6094813630181</v>
@@ -24060,22 +24062,22 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G21" t="n">
-        <v>126.9854363758741</v>
+        <v>126.8822821399033</v>
       </c>
       <c r="H21" t="n">
-        <v>94.5366171262896</v>
+        <v>93.5403643736245</v>
       </c>
       <c r="I21" t="n">
-        <v>52.00608518301456</v>
+        <v>48.45450293577519</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>50.24867586497896</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>21.74077328296876</v>
       </c>
       <c r="L21" t="n">
-        <v>13.61350529844597</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -24084,25 +24086,25 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>7.418125047647706</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>21.82048350850063</v>
+        <v>2.122548746678021</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>42.38790508806972</v>
       </c>
       <c r="R21" t="n">
-        <v>30.88817237036449</v>
+        <v>83.66173187770315</v>
       </c>
       <c r="S21" t="n">
-        <v>142.8056045053299</v>
+        <v>140.8895598152587</v>
       </c>
       <c r="T21" t="n">
-        <v>184.9611451887135</v>
+        <v>184.5453612288137</v>
       </c>
       <c r="U21" t="n">
-        <v>216.2798590433917</v>
+        <v>216.2730725804989</v>
       </c>
       <c r="V21" t="n">
         <v>226.1116663261494</v>
@@ -24139,28 +24141,28 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>166.8484416772834</v>
+        <v>166.7619606310209</v>
       </c>
       <c r="H22" t="n">
-        <v>154.3816182209092</v>
+        <v>153.6127231005024</v>
       </c>
       <c r="I22" t="n">
-        <v>131.269940117466</v>
+        <v>128.6692191989529</v>
       </c>
       <c r="J22" t="n">
-        <v>32.44152677383354</v>
+        <v>26.32731680307289</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>39.92716966793144</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>39.423506304455</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>32.0373763711288</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -24169,19 +24171,19 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>6.155510525861384</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>130.8455323770033</v>
+        <v>126.9570300605083</v>
       </c>
       <c r="S22" t="n">
-        <v>204.9135390503414</v>
+        <v>203.4064102713844</v>
       </c>
       <c r="T22" t="n">
-        <v>229.2145141050582</v>
+        <v>228.8450041801183</v>
       </c>
       <c r="U22" t="n">
-        <v>284.2974947811432</v>
+        <v>284.2927776331653</v>
       </c>
       <c r="V22" t="n">
         <v>258.1279513971616</v>
@@ -24218,49 +24220,49 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G23" t="n">
-        <v>411.0910991671059</v>
+        <v>410.8983045093804</v>
       </c>
       <c r="H23" t="n">
-        <v>320.7690783136127</v>
+        <v>318.7946200251814</v>
       </c>
       <c r="I23" t="n">
-        <v>138.2481755487984</v>
+        <v>130.8154595068359</v>
       </c>
       <c r="J23" t="n">
-        <v>74.80030455040011</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>70.46480586072633</v>
+        <v>45.94060241807557</v>
       </c>
       <c r="L23" t="n">
-        <v>57.13228571623071</v>
+        <v>26.70784276721304</v>
       </c>
       <c r="M23" t="n">
-        <v>37.57934483655106</v>
+        <v>3.726289893207451</v>
       </c>
       <c r="N23" t="n">
-        <v>34.40083276460621</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>43.42807408235635</v>
+        <v>10.94434319550814</v>
       </c>
       <c r="P23" t="n">
-        <v>65.38007183670243</v>
+        <v>37.65595906245261</v>
       </c>
       <c r="Q23" t="n">
-        <v>88.63342487673017</v>
+        <v>67.81377078227503</v>
       </c>
       <c r="R23" t="n">
-        <v>121.6533831199176</v>
+        <v>24.11139986669068</v>
       </c>
       <c r="S23" t="n">
-        <v>165.9452104078107</v>
+        <v>161.5519021448908</v>
       </c>
       <c r="T23" t="n">
-        <v>218.3863943170558</v>
+        <v>217.5424357028624</v>
       </c>
       <c r="U23" t="n">
-        <v>252.2683351220861</v>
+        <v>252.252911549468</v>
       </c>
       <c r="V23" t="n">
         <v>333.6094813630181</v>
@@ -24297,22 +24299,22 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G24" t="n">
-        <v>126.9854363758741</v>
+        <v>126.8822821399033</v>
       </c>
       <c r="H24" t="n">
-        <v>94.5366171262896</v>
+        <v>93.5403643736245</v>
       </c>
       <c r="I24" t="n">
-        <v>52.00608518301455</v>
+        <v>48.45450293577519</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>38.39792023795113</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>13.61350529844596</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -24321,25 +24323,25 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>7.418125047647706</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>21.82048350850062</v>
+        <v>2.122548746678021</v>
       </c>
       <c r="Q24" t="n">
-        <v>55.55545282356709</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>30.88817237036449</v>
+        <v>24.48356112298609</v>
       </c>
       <c r="S24" t="n">
-        <v>142.8056045053299</v>
+        <v>140.8895598152587</v>
       </c>
       <c r="T24" t="n">
-        <v>184.9611451887135</v>
+        <v>184.5453612288137</v>
       </c>
       <c r="U24" t="n">
-        <v>216.2798590433917</v>
+        <v>216.2730725804989</v>
       </c>
       <c r="V24" t="n">
         <v>226.1116663261494</v>
@@ -24376,16 +24378,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
-        <v>166.8484416772834</v>
+        <v>166.7619606310209</v>
       </c>
       <c r="H25" t="n">
-        <v>154.3816182209092</v>
+        <v>153.6127231005024</v>
       </c>
       <c r="I25" t="n">
-        <v>131.269940117466</v>
+        <v>128.6692191989529</v>
       </c>
       <c r="J25" t="n">
-        <v>76.16864049337387</v>
+        <v>26.32731680307289</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24394,10 +24396,10 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>39.423506304455</v>
       </c>
       <c r="N25" t="n">
-        <v>45.27133502328439</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -24406,19 +24408,19 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>6.155510525861384</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>130.8455323770033</v>
+        <v>126.9570300605083</v>
       </c>
       <c r="S25" t="n">
-        <v>204.9135390503414</v>
+        <v>203.4064102713844</v>
       </c>
       <c r="T25" t="n">
-        <v>229.2145141050582</v>
+        <v>228.8450041801183</v>
       </c>
       <c r="U25" t="n">
-        <v>284.2974947811432</v>
+        <v>284.2927776331653</v>
       </c>
       <c r="V25" t="n">
         <v>258.1279513971616</v>
@@ -24455,49 +24457,49 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G26" t="n">
-        <v>411.0910991671059</v>
+        <v>410.8983045093804</v>
       </c>
       <c r="H26" t="n">
-        <v>320.7690783136127</v>
+        <v>318.7946200251814</v>
       </c>
       <c r="I26" t="n">
-        <v>138.2481755487984</v>
+        <v>130.8154595068359</v>
       </c>
       <c r="J26" t="n">
-        <v>74.80030455040011</v>
+        <v>58.43709896927</v>
       </c>
       <c r="K26" t="n">
-        <v>70.46480586072633</v>
+        <v>45.94060241807557</v>
       </c>
       <c r="L26" t="n">
-        <v>57.13228571623071</v>
+        <v>26.70784276721304</v>
       </c>
       <c r="M26" t="n">
-        <v>37.57934483655106</v>
+        <v>3.726289893207451</v>
       </c>
       <c r="N26" t="n">
-        <v>34.40083276460621</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>43.42807408235635</v>
+        <v>10.94434319550814</v>
       </c>
       <c r="P26" t="n">
-        <v>65.38007183670243</v>
+        <v>37.65595906245261</v>
       </c>
       <c r="Q26" t="n">
-        <v>88.63342487673017</v>
+        <v>67.81377078227503</v>
       </c>
       <c r="R26" t="n">
-        <v>121.6533831199176</v>
+        <v>109.5427457015678</v>
       </c>
       <c r="S26" t="n">
-        <v>165.9452104078107</v>
+        <v>161.5519021448908</v>
       </c>
       <c r="T26" t="n">
-        <v>218.3863943170558</v>
+        <v>217.5424357028624</v>
       </c>
       <c r="U26" t="n">
-        <v>252.2683351220861</v>
+        <v>252.252911549468</v>
       </c>
       <c r="V26" t="n">
         <v>333.6094813630181</v>
@@ -24534,22 +24536,22 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G27" t="n">
-        <v>126.9854363758741</v>
+        <v>126.8822821399033</v>
       </c>
       <c r="H27" t="n">
-        <v>94.5366171262896</v>
+        <v>93.5403643736245</v>
       </c>
       <c r="I27" t="n">
-        <v>52.00608518301455</v>
+        <v>48.45450293577519</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>21.74077328296876</v>
       </c>
       <c r="L27" t="n">
-        <v>13.61350529844596</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -24558,25 +24560,25 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>7.418125047647706</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>2.122548746678021</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>30.88817237036449</v>
+        <v>24.48356112298609</v>
       </c>
       <c r="S27" t="n">
-        <v>142.8056045053299</v>
+        <v>140.8895598152587</v>
       </c>
       <c r="T27" t="n">
-        <v>184.9611451887135</v>
+        <v>184.5453612288137</v>
       </c>
       <c r="U27" t="n">
-        <v>216.2798590433917</v>
+        <v>216.2730725804989</v>
       </c>
       <c r="V27" t="n">
         <v>226.1116663261494</v>
@@ -24613,22 +24615,22 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G28" t="n">
-        <v>166.8484416772834</v>
+        <v>166.7619606310209</v>
       </c>
       <c r="H28" t="n">
-        <v>154.3816182209092</v>
+        <v>153.6127231005024</v>
       </c>
       <c r="I28" t="n">
-        <v>131.269940117466</v>
+        <v>128.6692191989529</v>
       </c>
       <c r="J28" t="n">
-        <v>32.44152677383354</v>
+        <v>26.32731680307289</v>
       </c>
       <c r="K28" t="n">
-        <v>60.42909946350711</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>52.78454267318021</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -24643,19 +24645,19 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>6.155510525861384</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>130.8455323770033</v>
+        <v>126.9570300605083</v>
       </c>
       <c r="S28" t="n">
-        <v>204.9135390503414</v>
+        <v>203.4064102713844</v>
       </c>
       <c r="T28" t="n">
-        <v>229.2145141050582</v>
+        <v>228.8450041801183</v>
       </c>
       <c r="U28" t="n">
-        <v>284.2974947811432</v>
+        <v>284.2927776331653</v>
       </c>
       <c r="V28" t="n">
         <v>258.1279513971616</v>
@@ -24692,49 +24694,49 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G29" t="n">
-        <v>411.0910991671059</v>
+        <v>410.8983045093804</v>
       </c>
       <c r="H29" t="n">
-        <v>320.7690783136127</v>
+        <v>318.7946200251814</v>
       </c>
       <c r="I29" t="n">
-        <v>138.2481755487984</v>
+        <v>130.8154595068359</v>
       </c>
       <c r="J29" t="n">
-        <v>74.80030455040011</v>
+        <v>58.43709896927</v>
       </c>
       <c r="K29" t="n">
-        <v>70.46480586072633</v>
+        <v>45.94060241807557</v>
       </c>
       <c r="L29" t="n">
-        <v>57.13228571623071</v>
+        <v>26.70784276721304</v>
       </c>
       <c r="M29" t="n">
-        <v>37.57934483655106</v>
+        <v>3.726289893207451</v>
       </c>
       <c r="N29" t="n">
-        <v>34.40083276460621</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>43.42807408235635</v>
+        <v>10.94434319550814</v>
       </c>
       <c r="P29" t="n">
-        <v>65.38007183670243</v>
+        <v>37.65595906245261</v>
       </c>
       <c r="Q29" t="n">
-        <v>88.63342487673017</v>
+        <v>67.81377078227503</v>
       </c>
       <c r="R29" t="n">
-        <v>121.6533831199176</v>
+        <v>109.5427457015678</v>
       </c>
       <c r="S29" t="n">
-        <v>165.9452104078107</v>
+        <v>161.5519021448908</v>
       </c>
       <c r="T29" t="n">
-        <v>218.3863943170558</v>
+        <v>217.5424357028624</v>
       </c>
       <c r="U29" t="n">
-        <v>252.2683351220861</v>
+        <v>252.252911549468</v>
       </c>
       <c r="V29" t="n">
         <v>333.6094813630181</v>
@@ -24771,22 +24773,22 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G30" t="n">
-        <v>126.9854363758741</v>
+        <v>126.8822821399033</v>
       </c>
       <c r="H30" t="n">
-        <v>94.5366171262896</v>
+        <v>93.5403643736245</v>
       </c>
       <c r="I30" t="n">
-        <v>65.16955647617495</v>
+        <v>61.61797422893559</v>
       </c>
       <c r="J30" t="n">
-        <v>59.99448900991949</v>
+        <v>50.24867586497896</v>
       </c>
       <c r="K30" t="n">
-        <v>38.39792023795113</v>
+        <v>21.74077328296876</v>
       </c>
       <c r="L30" t="n">
-        <v>13.61350529844596</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -24795,25 +24797,25 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>7.418125047647706</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>21.82048350850062</v>
+        <v>2.122548746678021</v>
       </c>
       <c r="Q30" t="n">
-        <v>55.55545282356709</v>
+        <v>42.38790508806972</v>
       </c>
       <c r="R30" t="n">
-        <v>90.06634312508154</v>
+        <v>83.66173187770315</v>
       </c>
       <c r="S30" t="n">
-        <v>142.8056045053299</v>
+        <v>140.8895598152587</v>
       </c>
       <c r="T30" t="n">
-        <v>184.9611451887135</v>
+        <v>184.5453612288137</v>
       </c>
       <c r="U30" t="n">
-        <v>216.2798590433917</v>
+        <v>216.2730725804989</v>
       </c>
       <c r="V30" t="n">
         <v>226.1116663261494</v>
@@ -24850,16 +24852,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G31" t="n">
-        <v>166.8484416772834</v>
+        <v>166.7619606310209</v>
       </c>
       <c r="H31" t="n">
-        <v>154.3816182209092</v>
+        <v>153.6127231005024</v>
       </c>
       <c r="I31" t="n">
-        <v>131.269940117466</v>
+        <v>128.6692191989529</v>
       </c>
       <c r="J31" t="n">
-        <v>32.44152677383354</v>
+        <v>26.32731680307289</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,19 +24882,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>6.155510525861384</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>130.8455323770033</v>
+        <v>126.9570300605083</v>
       </c>
       <c r="S31" t="n">
-        <v>204.9135390503414</v>
+        <v>203.4064102713844</v>
       </c>
       <c r="T31" t="n">
-        <v>229.2145141050582</v>
+        <v>228.8450041801183</v>
       </c>
       <c r="U31" t="n">
-        <v>284.2974947811432</v>
+        <v>284.2927776331653</v>
       </c>
       <c r="V31" t="n">
         <v>258.1279513971616</v>
@@ -24929,49 +24931,49 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G32" t="n">
-        <v>411.0910991671059</v>
+        <v>410.8983045093804</v>
       </c>
       <c r="H32" t="n">
-        <v>320.7690783136127</v>
+        <v>318.7946200251814</v>
       </c>
       <c r="I32" t="n">
-        <v>138.2481755487984</v>
+        <v>130.8154595068359</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>58.43709896927</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>57.13228571623071</v>
+        <v>26.70784276721304</v>
       </c>
       <c r="M32" t="n">
-        <v>37.57934483655106</v>
+        <v>3.726289893207451</v>
       </c>
       <c r="N32" t="n">
-        <v>34.40083276460621</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>43.42807408235635</v>
+        <v>10.94434319550814</v>
       </c>
       <c r="P32" t="n">
-        <v>65.38007183670243</v>
+        <v>37.65595906245261</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>67.81377078227503</v>
       </c>
       <c r="R32" t="n">
-        <v>36.22203728504044</v>
+        <v>24.11139986669068</v>
       </c>
       <c r="S32" t="n">
-        <v>165.9452104078107</v>
+        <v>161.5519021448908</v>
       </c>
       <c r="T32" t="n">
-        <v>218.3863943170558</v>
+        <v>217.5424357028624</v>
       </c>
       <c r="U32" t="n">
-        <v>252.2683351220861</v>
+        <v>252.252911549468</v>
       </c>
       <c r="V32" t="n">
         <v>333.6094813630181</v>
@@ -25008,19 +25010,19 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G33" t="n">
-        <v>126.9854363758741</v>
+        <v>126.8822821399033</v>
       </c>
       <c r="H33" t="n">
-        <v>94.5366171262896</v>
+        <v>93.5403643736245</v>
       </c>
       <c r="I33" t="n">
-        <v>52.00608518301455</v>
+        <v>61.61797422893559</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>50.24867586497896</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>21.74077328296876</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -25032,25 +25034,25 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>7.418125047647706</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>2.122548746678021</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>42.38790508806972</v>
       </c>
       <c r="R33" t="n">
-        <v>30.88817237036449</v>
+        <v>24.48356112298609</v>
       </c>
       <c r="S33" t="n">
-        <v>142.8056045053299</v>
+        <v>140.8895598152587</v>
       </c>
       <c r="T33" t="n">
-        <v>184.9611451887135</v>
+        <v>184.5453612288137</v>
       </c>
       <c r="U33" t="n">
-        <v>216.2798590433917</v>
+        <v>216.2730725804989</v>
       </c>
       <c r="V33" t="n">
         <v>226.1116663261494</v>
@@ -25087,19 +25089,19 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G34" t="n">
-        <v>166.8484416772834</v>
+        <v>166.7619606310209</v>
       </c>
       <c r="H34" t="n">
-        <v>154.3816182209092</v>
+        <v>153.6127231005024</v>
       </c>
       <c r="I34" t="n">
-        <v>131.269940117466</v>
+        <v>128.6692191989529</v>
       </c>
       <c r="J34" t="n">
-        <v>32.44152677383354</v>
+        <v>26.32731680307289</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>50.38157427046082</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -25111,25 +25113,25 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>46.26279818095588</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>55.23011048084078</v>
       </c>
       <c r="Q34" t="n">
-        <v>6.155510525861384</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>130.8455323770033</v>
+        <v>126.9570300605083</v>
       </c>
       <c r="S34" t="n">
-        <v>204.9135390503414</v>
+        <v>203.4064102713844</v>
       </c>
       <c r="T34" t="n">
-        <v>229.2145141050582</v>
+        <v>228.8450041801183</v>
       </c>
       <c r="U34" t="n">
-        <v>284.2974947811432</v>
+        <v>284.2927776331653</v>
       </c>
       <c r="V34" t="n">
         <v>258.1279513971616</v>
@@ -25166,49 +25168,49 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G35" t="n">
-        <v>411.0910991671059</v>
+        <v>410.8983045093804</v>
       </c>
       <c r="H35" t="n">
-        <v>320.7690783136127</v>
+        <v>318.7946200251814</v>
       </c>
       <c r="I35" t="n">
-        <v>138.2481755487984</v>
+        <v>130.8154595068359</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>58.43709896927</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>45.94060241807557</v>
       </c>
       <c r="L35" t="n">
-        <v>57.13228571623071</v>
+        <v>26.70784276721304</v>
       </c>
       <c r="M35" t="n">
-        <v>37.57934483655106</v>
+        <v>3.726289893207451</v>
       </c>
       <c r="N35" t="n">
-        <v>34.40083276460621</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>43.42807408235635</v>
+        <v>10.94434319550814</v>
       </c>
       <c r="P35" t="n">
-        <v>65.38007183670243</v>
+        <v>37.65595906245261</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>36.22203728504044</v>
+        <v>24.11139986669068</v>
       </c>
       <c r="S35" t="n">
-        <v>165.9452104078107</v>
+        <v>161.5519021448908</v>
       </c>
       <c r="T35" t="n">
-        <v>218.3863943170558</v>
+        <v>217.5424357028624</v>
       </c>
       <c r="U35" t="n">
-        <v>252.2683351220861</v>
+        <v>252.252911549468</v>
       </c>
       <c r="V35" t="n">
         <v>333.6094813630181</v>
@@ -25245,22 +25247,22 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G36" t="n">
-        <v>126.9854363758741</v>
+        <v>126.8822821399033</v>
       </c>
       <c r="H36" t="n">
-        <v>94.5366171262896</v>
+        <v>93.5403643736245</v>
       </c>
       <c r="I36" t="n">
-        <v>52.00608518301455</v>
+        <v>48.45450293577519</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>21.74077328296876</v>
       </c>
       <c r="L36" t="n">
-        <v>13.61350529844596</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -25269,25 +25271,25 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>7.418125047647706</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>2.122548746678021</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>30.88817237036449</v>
+        <v>24.48356112298609</v>
       </c>
       <c r="S36" t="n">
-        <v>142.8056045053299</v>
+        <v>140.8895598152587</v>
       </c>
       <c r="T36" t="n">
-        <v>184.9611451887135</v>
+        <v>184.5453612288137</v>
       </c>
       <c r="U36" t="n">
-        <v>216.2798590433917</v>
+        <v>216.2730725804989</v>
       </c>
       <c r="V36" t="n">
         <v>226.1116663261494</v>
@@ -25324,49 +25326,49 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
-        <v>166.8484416772834</v>
+        <v>166.7619606310209</v>
       </c>
       <c r="H37" t="n">
-        <v>154.3816182209092</v>
+        <v>153.6127231005024</v>
       </c>
       <c r="I37" t="n">
-        <v>131.269940117466</v>
+        <v>128.6692191989529</v>
       </c>
       <c r="J37" t="n">
-        <v>32.44152677383354</v>
+        <v>26.32731680307289</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>52.78454267318021</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>45.27133502328439</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>58.48650097449923</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>6.155510525861384</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>130.8455323770033</v>
+        <v>126.9570300605083</v>
       </c>
       <c r="S37" t="n">
-        <v>204.9135390503414</v>
+        <v>203.4064102713844</v>
       </c>
       <c r="T37" t="n">
-        <v>229.2145141050582</v>
+        <v>228.8450041801183</v>
       </c>
       <c r="U37" t="n">
-        <v>284.2974947811432</v>
+        <v>284.2927776331653</v>
       </c>
       <c r="V37" t="n">
         <v>258.1279513971616</v>
@@ -25403,49 +25405,49 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G38" t="n">
-        <v>411.0910991671059</v>
+        <v>410.8983045093804</v>
       </c>
       <c r="H38" t="n">
-        <v>320.7690783136127</v>
+        <v>318.7946200251814</v>
       </c>
       <c r="I38" t="n">
-        <v>138.2481755487984</v>
+        <v>130.8154595068359</v>
       </c>
       <c r="J38" t="n">
-        <v>74.80030455040011</v>
+        <v>58.43709896927001</v>
       </c>
       <c r="K38" t="n">
-        <v>70.46480586072633</v>
+        <v>45.9406024180756</v>
       </c>
       <c r="L38" t="n">
-        <v>57.13228571623071</v>
+        <v>26.70784276721304</v>
       </c>
       <c r="M38" t="n">
-        <v>37.57934483655106</v>
+        <v>3.726289893207451</v>
       </c>
       <c r="N38" t="n">
-        <v>34.40083276460621</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>43.42807408235635</v>
+        <v>10.94434319550814</v>
       </c>
       <c r="P38" t="n">
-        <v>65.38007183670243</v>
+        <v>37.65595906245261</v>
       </c>
       <c r="Q38" t="n">
-        <v>88.63342487673017</v>
+        <v>67.81377078227503</v>
       </c>
       <c r="R38" t="n">
-        <v>121.6533831199176</v>
+        <v>109.5427457015678</v>
       </c>
       <c r="S38" t="n">
-        <v>165.9452104078107</v>
+        <v>161.5519021448908</v>
       </c>
       <c r="T38" t="n">
-        <v>218.3863943170558</v>
+        <v>217.5424357028624</v>
       </c>
       <c r="U38" t="n">
-        <v>252.2683351220861</v>
+        <v>252.252911549468</v>
       </c>
       <c r="V38" t="n">
         <v>333.6094813630181</v>
@@ -25482,22 +25484,22 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G39" t="n">
-        <v>126.9854363758741</v>
+        <v>126.8822821399033</v>
       </c>
       <c r="H39" t="n">
-        <v>94.5366171262896</v>
+        <v>93.5403643736245</v>
       </c>
       <c r="I39" t="n">
-        <v>52.00608518301455</v>
+        <v>48.45450293577519</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>21.74077328296876</v>
       </c>
       <c r="L39" t="n">
-        <v>13.61350529844596</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -25506,25 +25508,25 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>7.418125047647706</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>21.82048350850062</v>
+        <v>2.122548746678021</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>30.88817237036449</v>
+        <v>24.48356112298609</v>
       </c>
       <c r="S39" t="n">
-        <v>142.8056045053299</v>
+        <v>140.8895598152587</v>
       </c>
       <c r="T39" t="n">
-        <v>184.9611451887135</v>
+        <v>184.5453612288137</v>
       </c>
       <c r="U39" t="n">
-        <v>216.2798590433917</v>
+        <v>216.2730725804989</v>
       </c>
       <c r="V39" t="n">
         <v>226.1116663261494</v>
@@ -25561,16 +25563,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>166.8484416772834</v>
+        <v>166.7619606310209</v>
       </c>
       <c r="H40" t="n">
-        <v>154.3816182209092</v>
+        <v>153.6127231005024</v>
       </c>
       <c r="I40" t="n">
-        <v>131.269940117466</v>
+        <v>128.6692191989529</v>
       </c>
       <c r="J40" t="n">
-        <v>32.44152677383354</v>
+        <v>26.32731680307289</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,19 +25593,19 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>6.155510525861384</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>130.8455323770033</v>
+        <v>126.9570300605083</v>
       </c>
       <c r="S40" t="n">
-        <v>204.9135390503414</v>
+        <v>203.4064102713844</v>
       </c>
       <c r="T40" t="n">
-        <v>229.2145141050582</v>
+        <v>228.8450041801183</v>
       </c>
       <c r="U40" t="n">
-        <v>284.2974947811432</v>
+        <v>284.2927776331653</v>
       </c>
       <c r="V40" t="n">
         <v>258.1279513971616</v>
@@ -25640,49 +25642,49 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G41" t="n">
-        <v>411.0910991671059</v>
+        <v>410.8983045093804</v>
       </c>
       <c r="H41" t="n">
-        <v>320.7690783136127</v>
+        <v>318.7946200251814</v>
       </c>
       <c r="I41" t="n">
-        <v>138.2481755487984</v>
+        <v>130.8154595068359</v>
       </c>
       <c r="J41" t="n">
-        <v>74.80030455040011</v>
+        <v>58.43709896927</v>
       </c>
       <c r="K41" t="n">
-        <v>70.46480586072633</v>
+        <v>45.94060241807557</v>
       </c>
       <c r="L41" t="n">
-        <v>57.13228571623071</v>
+        <v>26.70784276721304</v>
       </c>
       <c r="M41" t="n">
-        <v>37.57934483655106</v>
+        <v>3.726289893207451</v>
       </c>
       <c r="N41" t="n">
-        <v>34.40083276460621</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>43.42807408235635</v>
+        <v>10.94434319550814</v>
       </c>
       <c r="P41" t="n">
-        <v>65.38007183670243</v>
+        <v>37.65595906245261</v>
       </c>
       <c r="Q41" t="n">
-        <v>88.63342487673017</v>
+        <v>67.81377078227503</v>
       </c>
       <c r="R41" t="n">
-        <v>121.6533831199176</v>
+        <v>109.5427457015678</v>
       </c>
       <c r="S41" t="n">
-        <v>165.9452104078107</v>
+        <v>161.5519021448908</v>
       </c>
       <c r="T41" t="n">
-        <v>218.3863943170558</v>
+        <v>217.5424357028624</v>
       </c>
       <c r="U41" t="n">
-        <v>252.2683351220861</v>
+        <v>252.252911549468</v>
       </c>
       <c r="V41" t="n">
         <v>333.6094813630181</v>
@@ -25719,22 +25721,22 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G42" t="n">
-        <v>126.9854363758741</v>
+        <v>126.8822821399033</v>
       </c>
       <c r="H42" t="n">
-        <v>94.5366171262896</v>
+        <v>93.5403643736245</v>
       </c>
       <c r="I42" t="n">
-        <v>52.00608518301455</v>
+        <v>48.45450293577519</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>21.74077328296876</v>
       </c>
       <c r="L42" t="n">
-        <v>13.61350529844596</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -25743,25 +25745,25 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>7.418125047647706</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>21.82048350850062</v>
+        <v>2.122548746678021</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>42.38790508806972</v>
       </c>
       <c r="R42" t="n">
-        <v>30.88817237036449</v>
+        <v>24.48356112298609</v>
       </c>
       <c r="S42" t="n">
-        <v>142.8056045053299</v>
+        <v>140.8895598152587</v>
       </c>
       <c r="T42" t="n">
-        <v>184.9611451887135</v>
+        <v>184.5453612288137</v>
       </c>
       <c r="U42" t="n">
-        <v>216.2798590433917</v>
+        <v>216.2730725804989</v>
       </c>
       <c r="V42" t="n">
         <v>226.1116663261494</v>
@@ -25798,49 +25800,49 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
-        <v>166.8484416772834</v>
+        <v>166.7619606310209</v>
       </c>
       <c r="H43" t="n">
-        <v>154.3816182209092</v>
+        <v>153.6127231005024</v>
       </c>
       <c r="I43" t="n">
-        <v>131.269940117466</v>
+        <v>128.6692191989529</v>
       </c>
       <c r="J43" t="n">
-        <v>32.44152677383354</v>
+        <v>26.32731680307289</v>
       </c>
       <c r="K43" t="n">
-        <v>60.42909946350711</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>52.78454267318021</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>52.97980340177091</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>45.27133502328439</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>46.26279818095588</v>
       </c>
       <c r="P43" t="n">
-        <v>65.68959993062856</v>
+        <v>55.23011048084078</v>
       </c>
       <c r="Q43" t="n">
-        <v>6.155510525861384</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>130.8455323770033</v>
+        <v>126.9570300605083</v>
       </c>
       <c r="S43" t="n">
-        <v>204.9135390503414</v>
+        <v>203.4064102713844</v>
       </c>
       <c r="T43" t="n">
-        <v>229.2145141050582</v>
+        <v>228.8450041801183</v>
       </c>
       <c r="U43" t="n">
-        <v>284.2974947811432</v>
+        <v>284.2927776331653</v>
       </c>
       <c r="V43" t="n">
         <v>258.1279513971616</v>
@@ -25877,49 +25879,49 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G44" t="n">
-        <v>411.0910991671059</v>
+        <v>410.8983045093804</v>
       </c>
       <c r="H44" t="n">
-        <v>320.7690783136127</v>
+        <v>318.7946200251814</v>
       </c>
       <c r="I44" t="n">
-        <v>138.2481755487984</v>
+        <v>130.8154595068359</v>
       </c>
       <c r="J44" t="n">
-        <v>74.80030455040011</v>
+        <v>58.43709896927</v>
       </c>
       <c r="K44" t="n">
-        <v>70.46480586072633</v>
+        <v>45.94060241807557</v>
       </c>
       <c r="L44" t="n">
-        <v>57.13228571623071</v>
+        <v>26.70784276721304</v>
       </c>
       <c r="M44" t="n">
-        <v>37.57934483655106</v>
+        <v>3.726289893207451</v>
       </c>
       <c r="N44" t="n">
-        <v>34.40083276460621</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>43.42807408235635</v>
+        <v>10.94434319550814</v>
       </c>
       <c r="P44" t="n">
-        <v>65.38007183670243</v>
+        <v>37.65595906245261</v>
       </c>
       <c r="Q44" t="n">
-        <v>88.63342487673017</v>
+        <v>67.81377078227503</v>
       </c>
       <c r="R44" t="n">
-        <v>36.22203728504044</v>
+        <v>24.11139986669068</v>
       </c>
       <c r="S44" t="n">
-        <v>165.9452104078107</v>
+        <v>161.5519021448908</v>
       </c>
       <c r="T44" t="n">
-        <v>218.3863943170558</v>
+        <v>217.5424357028624</v>
       </c>
       <c r="U44" t="n">
-        <v>252.2683351220861</v>
+        <v>252.252911549468</v>
       </c>
       <c r="V44" t="n">
         <v>333.6094813630181</v>
@@ -25956,22 +25958,22 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G45" t="n">
-        <v>126.9854363758741</v>
+        <v>126.8822821399033</v>
       </c>
       <c r="H45" t="n">
-        <v>94.5366171262896</v>
+        <v>93.5403643736245</v>
       </c>
       <c r="I45" t="n">
-        <v>52.00608518301455</v>
+        <v>61.61797422893559</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>50.24867586497896</v>
       </c>
       <c r="K45" t="n">
-        <v>38.39792023795113</v>
+        <v>21.74077328296876</v>
       </c>
       <c r="L45" t="n">
-        <v>13.61350529844596</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -25980,25 +25982,25 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>7.418125047647706</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>21.82048350850062</v>
+        <v>2.122548746678021</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>42.38790508806972</v>
       </c>
       <c r="R45" t="n">
-        <v>30.88817237036449</v>
+        <v>24.48356112298609</v>
       </c>
       <c r="S45" t="n">
-        <v>142.8056045053299</v>
+        <v>140.8895598152587</v>
       </c>
       <c r="T45" t="n">
-        <v>184.9611451887135</v>
+        <v>184.5453612288137</v>
       </c>
       <c r="U45" t="n">
-        <v>216.2798590433917</v>
+        <v>216.2730725804989</v>
       </c>
       <c r="V45" t="n">
         <v>226.1116663261494</v>
@@ -26035,49 +26037,49 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>166.8484416772834</v>
+        <v>166.7619606310209</v>
       </c>
       <c r="H46" t="n">
-        <v>154.3816182209092</v>
+        <v>153.6127231005024</v>
       </c>
       <c r="I46" t="n">
-        <v>131.269940117466</v>
+        <v>128.6692191989529</v>
       </c>
       <c r="J46" t="n">
-        <v>32.44152677383354</v>
+        <v>26.32731680307289</v>
       </c>
       <c r="K46" t="n">
-        <v>60.42909946350711</v>
+        <v>50.38157427046082</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>39.92716966793144</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>39.423506304455</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>32.0373763711288</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>46.26279818095588</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>55.23011048084078</v>
       </c>
       <c r="Q46" t="n">
-        <v>6.155510525861384</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>130.8455323770033</v>
+        <v>126.9570300605083</v>
       </c>
       <c r="S46" t="n">
-        <v>204.9135390503414</v>
+        <v>203.4064102713844</v>
       </c>
       <c r="T46" t="n">
-        <v>229.2145141050582</v>
+        <v>228.8450041801183</v>
       </c>
       <c r="U46" t="n">
-        <v>284.2974947811432</v>
+        <v>284.2927776331653</v>
       </c>
       <c r="V46" t="n">
         <v>258.1279513971616</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>312207.1701149315</v>
+        <v>297137.2520133344</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>312207.1701149315</v>
+        <v>302382.7271107339</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>216172.4157259137</v>
+        <v>252671.6098554833</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>271818.1029522027</v>
+        <v>260870.6277018065</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>222253.8218032036</v>
+        <v>284911.2464761788</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>229827.2038381567</v>
+        <v>264912.994002152</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>216172.4157259137</v>
+        <v>252671.6098554833</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>280074.9513414391</v>
+        <v>268984.0142339647</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>272490.049344114</v>
+        <v>286260.0387469212</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>232963.0969315669</v>
+        <v>264912.994002152</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>221322.6129508872</v>
+        <v>257505.1092808218</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>239476.535547242</v>
+        <v>257906.1901186991</v>
       </c>
     </row>
   </sheetData>
@@ -26320,40 +26322,40 @@
         <v>40835.24109532517</v>
       </c>
       <c r="E2" t="n">
-        <v>43871.68767670979</v>
+        <v>42685.03093788441</v>
       </c>
       <c r="F2" t="n">
-        <v>43871.68767670979</v>
+        <v>43359.44916469293</v>
       </c>
       <c r="G2" t="n">
-        <v>31524.36211240751</v>
+        <v>36968.01980330356</v>
       </c>
       <c r="H2" t="n">
-        <v>38678.80761293036</v>
+        <v>38022.17924068797</v>
       </c>
       <c r="I2" t="n">
-        <v>32306.25717948763</v>
+        <v>41113.11594025011</v>
       </c>
       <c r="J2" t="n">
-        <v>33279.97772683876</v>
+        <v>38541.91205073238</v>
       </c>
       <c r="K2" t="n">
-        <v>31524.3621124075</v>
+        <v>36968.01980330354</v>
       </c>
       <c r="L2" t="n">
-        <v>39740.4024058322</v>
+        <v>39065.32893767973</v>
       </c>
       <c r="M2" t="n">
-        <v>38765.20072046182</v>
+        <v>41286.53208934556</v>
       </c>
       <c r="N2" t="n">
-        <v>33683.16398170577</v>
+        <v>38541.91205073238</v>
       </c>
       <c r="O2" t="n">
-        <v>32186.53032704697</v>
+        <v>37589.4697294185</v>
       </c>
       <c r="P2" t="n">
-        <v>34520.60608943543</v>
+        <v>37641.03726571702</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>170238.7408618884</v>
+        <v>208768.0777040487</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26424,40 +26426,40 @@
         <v>40835.24109532517</v>
       </c>
       <c r="E4" t="n">
-        <v>14854.62030612072</v>
+        <v>7827.597878784562</v>
       </c>
       <c r="F4" t="n">
-        <v>14854.62030612072</v>
+        <v>8502.016105593089</v>
       </c>
       <c r="G4" t="n">
-        <v>2507.294741818433</v>
+        <v>2110.5867442037</v>
       </c>
       <c r="H4" t="n">
-        <v>9661.740242341293</v>
+        <v>3164.746181588118</v>
       </c>
       <c r="I4" t="n">
-        <v>3289.189808898563</v>
+        <v>6255.682881150276</v>
       </c>
       <c r="J4" t="n">
-        <v>4262.910356249684</v>
+        <v>3684.478991632535</v>
       </c>
       <c r="K4" t="n">
-        <v>2507.294741818433</v>
+        <v>2110.5867442037</v>
       </c>
       <c r="L4" t="n">
-        <v>10723.33503524313</v>
+        <v>4207.895878579893</v>
       </c>
       <c r="M4" t="n">
-        <v>9748.133349872754</v>
+        <v>6429.099030245729</v>
       </c>
       <c r="N4" t="n">
-        <v>4666.0966111167</v>
+        <v>3684.478991632535</v>
       </c>
       <c r="O4" t="n">
-        <v>3169.462956457895</v>
+        <v>2732.036670318648</v>
       </c>
       <c r="P4" t="n">
-        <v>5503.538718846357</v>
+        <v>2783.604206617178</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>4619.356102465596</v>
+        <v>5664.83333264658</v>
       </c>
       <c r="F5" t="n">
-        <v>4619.356102465596</v>
+        <v>5664.83333264658</v>
       </c>
       <c r="G5" t="n">
-        <v>4619.356102465596</v>
+        <v>5664.83333264658</v>
       </c>
       <c r="H5" t="n">
-        <v>4619.356102465596</v>
+        <v>5664.83333264658</v>
       </c>
       <c r="I5" t="n">
-        <v>4619.356102465596</v>
+        <v>5664.83333264658</v>
       </c>
       <c r="J5" t="n">
-        <v>4619.356102465596</v>
+        <v>5664.83333264658</v>
       </c>
       <c r="K5" t="n">
-        <v>4619.356102465596</v>
+        <v>5664.83333264658</v>
       </c>
       <c r="L5" t="n">
-        <v>4619.356102465596</v>
+        <v>5664.83333264658</v>
       </c>
       <c r="M5" t="n">
-        <v>4619.356102465596</v>
+        <v>5664.83333264658</v>
       </c>
       <c r="N5" t="n">
-        <v>4619.356102465596</v>
+        <v>5664.83333264658</v>
       </c>
       <c r="O5" t="n">
-        <v>4619.356102465596</v>
+        <v>5664.83333264658</v>
       </c>
       <c r="P5" t="n">
-        <v>4619.356102465596</v>
+        <v>5664.83333264658</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>-33627.6</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.60000000001</v>
+        <v>-33627.6</v>
       </c>
       <c r="D6" t="n">
         <v>-33627.6</v>
       </c>
       <c r="E6" t="n">
-        <v>-145841.0295937649</v>
+        <v>-179575.4779775954</v>
       </c>
       <c r="F6" t="n">
-        <v>24397.71126812348</v>
+        <v>29192.59972645326</v>
       </c>
       <c r="G6" t="n">
-        <v>24397.71126812348</v>
+        <v>29192.59972645328</v>
       </c>
       <c r="H6" t="n">
-        <v>24397.71126812347</v>
+        <v>29192.59972645327</v>
       </c>
       <c r="I6" t="n">
-        <v>24397.71126812348</v>
+        <v>29192.59972645325</v>
       </c>
       <c r="J6" t="n">
-        <v>24397.71126812348</v>
+        <v>29192.59972645327</v>
       </c>
       <c r="K6" t="n">
-        <v>24397.71126812347</v>
+        <v>29192.59972645326</v>
       </c>
       <c r="L6" t="n">
-        <v>24397.71126812347</v>
+        <v>29192.59972645325</v>
       </c>
       <c r="M6" t="n">
-        <v>24397.71126812347</v>
+        <v>29192.59972645326</v>
       </c>
       <c r="N6" t="n">
-        <v>24397.71126812348</v>
+        <v>29192.59972645327</v>
       </c>
       <c r="O6" t="n">
-        <v>24397.71126812348</v>
+        <v>29192.59972645327</v>
       </c>
       <c r="P6" t="n">
-        <v>24397.71126812348</v>
+        <v>29192.59972645326</v>
       </c>
     </row>
   </sheetData>
@@ -26744,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>211.8970689204402</v>
+        <v>259.8547400296596</v>
       </c>
       <c r="F3" t="n">
-        <v>211.8970689204402</v>
+        <v>259.8547400296596</v>
       </c>
       <c r="G3" t="n">
-        <v>211.8970689204402</v>
+        <v>259.8547400296596</v>
       </c>
       <c r="H3" t="n">
-        <v>211.8970689204402</v>
+        <v>259.8547400296596</v>
       </c>
       <c r="I3" t="n">
-        <v>211.8970689204402</v>
+        <v>259.8547400296596</v>
       </c>
       <c r="J3" t="n">
-        <v>211.8970689204402</v>
+        <v>259.8547400296596</v>
       </c>
       <c r="K3" t="n">
-        <v>211.8970689204402</v>
+        <v>259.8547400296596</v>
       </c>
       <c r="L3" t="n">
-        <v>211.8970689204402</v>
+        <v>259.8547400296596</v>
       </c>
       <c r="M3" t="n">
-        <v>211.8970689204402</v>
+        <v>259.8547400296596</v>
       </c>
       <c r="N3" t="n">
-        <v>211.8970689204402</v>
+        <v>259.8547400296596</v>
       </c>
       <c r="O3" t="n">
-        <v>211.8970689204402</v>
+        <v>259.8547400296596</v>
       </c>
       <c r="P3" t="n">
-        <v>211.8970689204402</v>
+        <v>259.8547400296596</v>
       </c>
     </row>
     <row r="4">
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>211.8970689204402</v>
+        <v>259.8547400296596</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8518475132480001</v>
+        <v>1.044642170973505</v>
       </c>
       <c r="H11" t="n">
-        <v>8.723983345051083</v>
+        <v>10.69844163348241</v>
       </c>
       <c r="I11" t="n">
-        <v>32.84085125449356</v>
+        <v>40.2735672964561</v>
       </c>
       <c r="J11" t="n">
-        <v>72.29949287753251</v>
+        <v>88.66269845866263</v>
       </c>
       <c r="K11" t="n">
-        <v>108.3581981133204</v>
+        <v>132.8824015559711</v>
       </c>
       <c r="L11" t="n">
-        <v>134.4279264468839</v>
+        <v>164.8523693959016</v>
       </c>
       <c r="M11" t="n">
-        <v>149.576969660608</v>
+        <v>183.4300246039516</v>
       </c>
       <c r="N11" t="n">
-        <v>151.9972814076239</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O11" t="n">
-        <v>143.5267226977641</v>
+        <v>176.0104535846123</v>
       </c>
       <c r="P11" t="n">
-        <v>122.4967372144541</v>
+        <v>150.2208499887039</v>
       </c>
       <c r="Q11" t="n">
-        <v>91.98994814626005</v>
+        <v>112.8096022407152</v>
       </c>
       <c r="R11" t="n">
-        <v>53.50986635406474</v>
+        <v>65.62050377241451</v>
       </c>
       <c r="S11" t="n">
-        <v>19.41147520813882</v>
+        <v>23.80478347105878</v>
       </c>
       <c r="T11" t="n">
-        <v>3.728962489243123</v>
+        <v>4.572921103436522</v>
       </c>
       <c r="U11" t="n">
-        <v>0.06814780105984</v>
+        <v>0.08357137367788041</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,22 +31831,22 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4557786010741544</v>
+        <v>0.5589328370449282</v>
       </c>
       <c r="H12" t="n">
-        <v>4.401861752479334</v>
+        <v>5.39811450514444</v>
       </c>
       <c r="I12" t="n">
-        <v>15.69237727382506</v>
+        <v>19.24395952106442</v>
       </c>
       <c r="J12" t="n">
-        <v>43.0610826567472</v>
+        <v>52.80689580168773</v>
       </c>
       <c r="K12" t="n">
-        <v>73.59824892871555</v>
+        <v>90.25539588369791</v>
       </c>
       <c r="L12" t="n">
-        <v>98.96192827270183</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M12" t="n">
         <v>115.4839025616399</v>
@@ -31853,25 +31855,25 @@
         <v>106.7151410677083</v>
       </c>
       <c r="O12" t="n">
-        <v>108.4413235634634</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P12" t="n">
-        <v>87.03372251564271</v>
+        <v>106.7316572774653</v>
       </c>
       <c r="Q12" t="n">
-        <v>58.1797386213254</v>
+        <v>71.34728635682278</v>
       </c>
       <c r="R12" t="n">
-        <v>28.29825384563918</v>
+        <v>34.70286509301758</v>
       </c>
       <c r="S12" t="n">
-        <v>8.465887612057205</v>
+        <v>10.38193230212838</v>
       </c>
       <c r="T12" t="n">
-        <v>1.837107606961174</v>
+        <v>2.252891566860916</v>
       </c>
       <c r="U12" t="n">
-        <v>0.02998543428119438</v>
+        <v>0.03677189717400846</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3821094685450561</v>
+        <v>0.4685905148075829</v>
       </c>
       <c r="H13" t="n">
-        <v>3.397300547609683</v>
+        <v>4.166195668016512</v>
       </c>
       <c r="I13" t="n">
-        <v>11.49107383588223</v>
+        <v>14.09179475439532</v>
       </c>
       <c r="J13" t="n">
-        <v>27.01513942613546</v>
+        <v>33.12934939689611</v>
       </c>
       <c r="K13" t="n">
-        <v>44.39417280005287</v>
+        <v>54.44169799309917</v>
       </c>
       <c r="L13" t="n">
-        <v>56.80925680532589</v>
+        <v>69.66662981057466</v>
       </c>
       <c r="M13" t="n">
-        <v>59.89739605565819</v>
+        <v>73.4536931529741</v>
       </c>
       <c r="N13" t="n">
-        <v>58.47316985471758</v>
+        <v>71.70712850687316</v>
       </c>
       <c r="O13" t="n">
-        <v>54.00943651762304</v>
+        <v>66.23313931116638</v>
       </c>
       <c r="P13" t="n">
-        <v>46.21440335930385</v>
+        <v>56.67389280909164</v>
       </c>
       <c r="Q13" t="n">
-        <v>31.99645740698647</v>
+        <v>39.2380657444786</v>
       </c>
       <c r="R13" t="n">
-        <v>17.18103119476224</v>
+        <v>21.06953351125731</v>
       </c>
       <c r="S13" t="n">
-        <v>6.659125920007929</v>
+        <v>8.166254698964874</v>
       </c>
       <c r="T13" t="n">
-        <v>1.632649547419785</v>
+        <v>2.002159472359672</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02084233464791217</v>
+        <v>0.02555948262586819</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8518475132480001</v>
+        <v>1.044642170973505</v>
       </c>
       <c r="H14" t="n">
-        <v>8.723983345051083</v>
+        <v>10.69844163348241</v>
       </c>
       <c r="I14" t="n">
-        <v>32.84085125449356</v>
+        <v>40.2735672964561</v>
       </c>
       <c r="J14" t="n">
-        <v>72.29949287753251</v>
+        <v>88.66269845866263</v>
       </c>
       <c r="K14" t="n">
-        <v>108.3581981133204</v>
+        <v>132.8824015559711</v>
       </c>
       <c r="L14" t="n">
-        <v>134.4279264468839</v>
+        <v>164.8523693959016</v>
       </c>
       <c r="M14" t="n">
-        <v>149.576969660608</v>
+        <v>183.4300246039516</v>
       </c>
       <c r="N14" t="n">
-        <v>151.9972814076239</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O14" t="n">
-        <v>143.5267226977641</v>
+        <v>176.0104535846123</v>
       </c>
       <c r="P14" t="n">
-        <v>122.4967372144541</v>
+        <v>150.2208499887039</v>
       </c>
       <c r="Q14" t="n">
-        <v>91.98994814626005</v>
+        <v>112.8096022407152</v>
       </c>
       <c r="R14" t="n">
-        <v>53.50986635406474</v>
+        <v>65.62050377241451</v>
       </c>
       <c r="S14" t="n">
-        <v>19.41147520813882</v>
+        <v>23.80478347105878</v>
       </c>
       <c r="T14" t="n">
-        <v>3.728962489243123</v>
+        <v>4.572921103436522</v>
       </c>
       <c r="U14" t="n">
-        <v>0.06814780105984</v>
+        <v>0.08357137367788041</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,22 +32068,22 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4557786010741544</v>
+        <v>0.5589328370449282</v>
       </c>
       <c r="H15" t="n">
-        <v>4.401861752479334</v>
+        <v>5.39811450514444</v>
       </c>
       <c r="I15" t="n">
-        <v>15.69237727382506</v>
+        <v>19.24395952106442</v>
       </c>
       <c r="J15" t="n">
-        <v>43.0610826567472</v>
+        <v>52.80689580168773</v>
       </c>
       <c r="K15" t="n">
-        <v>73.59824892871555</v>
+        <v>90.25539588369791</v>
       </c>
       <c r="L15" t="n">
-        <v>98.96192827270183</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M15" t="n">
         <v>115.4839025616399</v>
@@ -32090,25 +32092,25 @@
         <v>106.7151410677083</v>
       </c>
       <c r="O15" t="n">
-        <v>108.4413235634634</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P15" t="n">
-        <v>87.03372251564271</v>
+        <v>106.7316572774653</v>
       </c>
       <c r="Q15" t="n">
-        <v>58.1797386213254</v>
+        <v>71.34728635682278</v>
       </c>
       <c r="R15" t="n">
-        <v>28.29825384563918</v>
+        <v>34.70286509301758</v>
       </c>
       <c r="S15" t="n">
-        <v>8.465887612057205</v>
+        <v>10.38193230212838</v>
       </c>
       <c r="T15" t="n">
-        <v>1.837107606961174</v>
+        <v>2.252891566860916</v>
       </c>
       <c r="U15" t="n">
-        <v>0.02998543428119438</v>
+        <v>0.03677189717400846</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3821094685450561</v>
+        <v>0.4685905148075829</v>
       </c>
       <c r="H16" t="n">
-        <v>3.397300547609683</v>
+        <v>4.166195668016512</v>
       </c>
       <c r="I16" t="n">
-        <v>11.49107383588223</v>
+        <v>14.09179475439532</v>
       </c>
       <c r="J16" t="n">
-        <v>27.01513942613546</v>
+        <v>33.12934939689611</v>
       </c>
       <c r="K16" t="n">
-        <v>44.39417280005287</v>
+        <v>54.44169799309917</v>
       </c>
       <c r="L16" t="n">
-        <v>56.80925680532589</v>
+        <v>69.66662981057466</v>
       </c>
       <c r="M16" t="n">
-        <v>59.89739605565819</v>
+        <v>73.4536931529741</v>
       </c>
       <c r="N16" t="n">
-        <v>58.47316985471758</v>
+        <v>71.70712850687316</v>
       </c>
       <c r="O16" t="n">
-        <v>54.00943651762304</v>
+        <v>66.23313931116638</v>
       </c>
       <c r="P16" t="n">
-        <v>46.21440335930385</v>
+        <v>56.67389280909164</v>
       </c>
       <c r="Q16" t="n">
-        <v>31.99645740698647</v>
+        <v>39.2380657444786</v>
       </c>
       <c r="R16" t="n">
-        <v>17.18103119476224</v>
+        <v>21.06953351125731</v>
       </c>
       <c r="S16" t="n">
-        <v>6.659125920007929</v>
+        <v>8.166254698964874</v>
       </c>
       <c r="T16" t="n">
-        <v>1.632649547419785</v>
+        <v>2.002159472359672</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02084233464791217</v>
+        <v>0.02555948262586819</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8518475132480001</v>
+        <v>1.044642170973505</v>
       </c>
       <c r="H17" t="n">
-        <v>8.723983345051083</v>
+        <v>10.69844163348241</v>
       </c>
       <c r="I17" t="n">
-        <v>32.84085125449356</v>
+        <v>40.2735672964561</v>
       </c>
       <c r="J17" t="n">
-        <v>72.29949287753251</v>
+        <v>88.66269845866263</v>
       </c>
       <c r="K17" t="n">
-        <v>108.3581981133204</v>
+        <v>132.8824015559711</v>
       </c>
       <c r="L17" t="n">
-        <v>134.4279264468839</v>
+        <v>164.8523693959016</v>
       </c>
       <c r="M17" t="n">
-        <v>149.576969660608</v>
+        <v>183.4300246039516</v>
       </c>
       <c r="N17" t="n">
-        <v>151.9972814076239</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O17" t="n">
-        <v>143.5267226977641</v>
+        <v>176.0104535846123</v>
       </c>
       <c r="P17" t="n">
-        <v>122.4967372144541</v>
+        <v>150.2208499887039</v>
       </c>
       <c r="Q17" t="n">
-        <v>91.98994814626005</v>
+        <v>112.8096022407152</v>
       </c>
       <c r="R17" t="n">
-        <v>53.50986635406474</v>
+        <v>65.62050377241451</v>
       </c>
       <c r="S17" t="n">
-        <v>19.41147520813882</v>
+        <v>23.80478347105878</v>
       </c>
       <c r="T17" t="n">
-        <v>3.728962489243123</v>
+        <v>4.572921103436522</v>
       </c>
       <c r="U17" t="n">
-        <v>0.06814780105984</v>
+        <v>0.08357137367788041</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,22 +32305,22 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4557786010741544</v>
+        <v>0.5589328370449282</v>
       </c>
       <c r="H18" t="n">
-        <v>4.401861752479334</v>
+        <v>5.39811450514444</v>
       </c>
       <c r="I18" t="n">
-        <v>15.69237727382506</v>
+        <v>19.24395952106442</v>
       </c>
       <c r="J18" t="n">
-        <v>43.0610826567472</v>
+        <v>52.80689580168773</v>
       </c>
       <c r="K18" t="n">
-        <v>73.59824892871555</v>
+        <v>90.25539588369791</v>
       </c>
       <c r="L18" t="n">
-        <v>98.96192827270183</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M18" t="n">
         <v>115.4839025616399</v>
@@ -32327,25 +32329,25 @@
         <v>106.7151410677083</v>
       </c>
       <c r="O18" t="n">
-        <v>108.4413235634634</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P18" t="n">
-        <v>87.03372251564271</v>
+        <v>106.7316572774653</v>
       </c>
       <c r="Q18" t="n">
-        <v>58.1797386213254</v>
+        <v>71.34728635682278</v>
       </c>
       <c r="R18" t="n">
-        <v>28.29825384563918</v>
+        <v>34.70286509301758</v>
       </c>
       <c r="S18" t="n">
-        <v>8.465887612057205</v>
+        <v>10.38193230212838</v>
       </c>
       <c r="T18" t="n">
-        <v>1.837107606961174</v>
+        <v>2.252891566860916</v>
       </c>
       <c r="U18" t="n">
-        <v>0.02998543428119438</v>
+        <v>0.03677189717400846</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3821094685450561</v>
+        <v>0.4685905148075829</v>
       </c>
       <c r="H19" t="n">
-        <v>3.397300547609683</v>
+        <v>4.166195668016512</v>
       </c>
       <c r="I19" t="n">
-        <v>11.49107383588223</v>
+        <v>14.09179475439532</v>
       </c>
       <c r="J19" t="n">
-        <v>27.01513942613546</v>
+        <v>33.12934939689611</v>
       </c>
       <c r="K19" t="n">
-        <v>44.39417280005287</v>
+        <v>54.44169799309917</v>
       </c>
       <c r="L19" t="n">
-        <v>56.80925680532589</v>
+        <v>69.66662981057466</v>
       </c>
       <c r="M19" t="n">
-        <v>59.89739605565819</v>
+        <v>73.4536931529741</v>
       </c>
       <c r="N19" t="n">
-        <v>58.47316985471758</v>
+        <v>71.70712850687316</v>
       </c>
       <c r="O19" t="n">
-        <v>54.00943651762304</v>
+        <v>66.23313931116638</v>
       </c>
       <c r="P19" t="n">
-        <v>46.21440335930385</v>
+        <v>56.67389280909164</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.99645740698647</v>
+        <v>39.2380657444786</v>
       </c>
       <c r="R19" t="n">
-        <v>17.18103119476224</v>
+        <v>21.06953351125731</v>
       </c>
       <c r="S19" t="n">
-        <v>6.659125920007929</v>
+        <v>8.166254698964874</v>
       </c>
       <c r="T19" t="n">
-        <v>1.632649547419785</v>
+        <v>2.002159472359672</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02084233464791217</v>
+        <v>0.02555948262586819</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.8518475132480001</v>
+        <v>1.044642170973505</v>
       </c>
       <c r="H20" t="n">
-        <v>8.723983345051083</v>
+        <v>10.69844163348241</v>
       </c>
       <c r="I20" t="n">
-        <v>32.84085125449356</v>
+        <v>40.2735672964561</v>
       </c>
       <c r="J20" t="n">
-        <v>72.29949287753253</v>
+        <v>88.66269845866263</v>
       </c>
       <c r="K20" t="n">
-        <v>108.3581981133204</v>
+        <v>132.8824015559711</v>
       </c>
       <c r="L20" t="n">
-        <v>134.4279264468839</v>
+        <v>164.8523693959016</v>
       </c>
       <c r="M20" t="n">
-        <v>149.576969660608</v>
+        <v>183.4300246039516</v>
       </c>
       <c r="N20" t="n">
-        <v>151.9972814076239</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O20" t="n">
-        <v>143.5267226977641</v>
+        <v>176.0104535846123</v>
       </c>
       <c r="P20" t="n">
-        <v>122.4967372144541</v>
+        <v>150.2208499887039</v>
       </c>
       <c r="Q20" t="n">
-        <v>91.98994814626005</v>
+        <v>112.8096022407152</v>
       </c>
       <c r="R20" t="n">
-        <v>53.50986635406473</v>
+        <v>65.62050377241451</v>
       </c>
       <c r="S20" t="n">
-        <v>19.41147520813882</v>
+        <v>23.80478347105878</v>
       </c>
       <c r="T20" t="n">
-        <v>3.728962489243122</v>
+        <v>4.572921103436522</v>
       </c>
       <c r="U20" t="n">
-        <v>0.06814780105984</v>
+        <v>0.08357137367788041</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,22 +32542,22 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4557786010741544</v>
+        <v>0.5589328370449282</v>
       </c>
       <c r="H21" t="n">
-        <v>4.401861752479334</v>
+        <v>5.39811450514444</v>
       </c>
       <c r="I21" t="n">
-        <v>15.69237727382505</v>
+        <v>19.24395952106442</v>
       </c>
       <c r="J21" t="n">
-        <v>43.0610826567472</v>
+        <v>52.80689580168773</v>
       </c>
       <c r="K21" t="n">
-        <v>73.59824892871555</v>
+        <v>90.25539588369791</v>
       </c>
       <c r="L21" t="n">
-        <v>98.96192827270181</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M21" t="n">
         <v>115.4839025616399</v>
@@ -32564,25 +32566,25 @@
         <v>106.7151410677083</v>
       </c>
       <c r="O21" t="n">
-        <v>108.4413235634634</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P21" t="n">
-        <v>87.03372251564269</v>
+        <v>106.7316572774653</v>
       </c>
       <c r="Q21" t="n">
-        <v>58.1797386213254</v>
+        <v>71.34728635682278</v>
       </c>
       <c r="R21" t="n">
-        <v>28.29825384563918</v>
+        <v>34.70286509301758</v>
       </c>
       <c r="S21" t="n">
-        <v>8.465887612057205</v>
+        <v>10.38193230212838</v>
       </c>
       <c r="T21" t="n">
-        <v>1.837107606961174</v>
+        <v>2.252891566860916</v>
       </c>
       <c r="U21" t="n">
-        <v>0.02998543428119438</v>
+        <v>0.03677189717400846</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3821094685450561</v>
+        <v>0.4685905148075829</v>
       </c>
       <c r="H22" t="n">
-        <v>3.397300547609682</v>
+        <v>4.166195668016512</v>
       </c>
       <c r="I22" t="n">
-        <v>11.49107383588223</v>
+        <v>14.09179475439532</v>
       </c>
       <c r="J22" t="n">
-        <v>27.01513942613546</v>
+        <v>33.12934939689611</v>
       </c>
       <c r="K22" t="n">
-        <v>44.39417280005286</v>
+        <v>54.44169799309917</v>
       </c>
       <c r="L22" t="n">
-        <v>56.80925680532589</v>
+        <v>69.66662981057466</v>
       </c>
       <c r="M22" t="n">
-        <v>59.89739605565818</v>
+        <v>73.4536931529741</v>
       </c>
       <c r="N22" t="n">
-        <v>58.47316985471758</v>
+        <v>71.70712850687316</v>
       </c>
       <c r="O22" t="n">
-        <v>54.00943651762304</v>
+        <v>66.23313931116638</v>
       </c>
       <c r="P22" t="n">
-        <v>46.21440335930385</v>
+        <v>56.67389280909164</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.99645740698647</v>
+        <v>39.2380657444786</v>
       </c>
       <c r="R22" t="n">
-        <v>17.18103119476224</v>
+        <v>21.06953351125731</v>
       </c>
       <c r="S22" t="n">
-        <v>6.659125920007929</v>
+        <v>8.166254698964874</v>
       </c>
       <c r="T22" t="n">
-        <v>1.632649547419785</v>
+        <v>2.002159472359672</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02084233464791217</v>
+        <v>0.02555948262586819</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.8518475132480001</v>
+        <v>1.044642170973505</v>
       </c>
       <c r="H23" t="n">
-        <v>8.723983345051083</v>
+        <v>10.69844163348241</v>
       </c>
       <c r="I23" t="n">
-        <v>32.84085125449356</v>
+        <v>40.2735672964561</v>
       </c>
       <c r="J23" t="n">
-        <v>72.29949287753251</v>
+        <v>88.66269845866263</v>
       </c>
       <c r="K23" t="n">
-        <v>108.3581981133204</v>
+        <v>132.8824015559711</v>
       </c>
       <c r="L23" t="n">
-        <v>134.4279264468839</v>
+        <v>164.8523693959016</v>
       </c>
       <c r="M23" t="n">
-        <v>149.576969660608</v>
+        <v>183.4300246039516</v>
       </c>
       <c r="N23" t="n">
-        <v>151.9972814076239</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O23" t="n">
-        <v>143.5267226977641</v>
+        <v>176.0104535846123</v>
       </c>
       <c r="P23" t="n">
-        <v>122.4967372144541</v>
+        <v>150.2208499887039</v>
       </c>
       <c r="Q23" t="n">
-        <v>91.98994814626005</v>
+        <v>112.8096022407152</v>
       </c>
       <c r="R23" t="n">
-        <v>53.50986635406474</v>
+        <v>65.62050377241451</v>
       </c>
       <c r="S23" t="n">
-        <v>19.41147520813882</v>
+        <v>23.80478347105878</v>
       </c>
       <c r="T23" t="n">
-        <v>3.728962489243123</v>
+        <v>4.572921103436522</v>
       </c>
       <c r="U23" t="n">
-        <v>0.06814780105984</v>
+        <v>0.08357137367788041</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,22 +32779,22 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.4557786010741544</v>
+        <v>0.5589328370449282</v>
       </c>
       <c r="H24" t="n">
-        <v>4.401861752479334</v>
+        <v>5.39811450514444</v>
       </c>
       <c r="I24" t="n">
-        <v>15.69237727382506</v>
+        <v>19.24395952106442</v>
       </c>
       <c r="J24" t="n">
-        <v>43.0610826567472</v>
+        <v>52.80689580168773</v>
       </c>
       <c r="K24" t="n">
-        <v>73.59824892871555</v>
+        <v>90.25539588369791</v>
       </c>
       <c r="L24" t="n">
-        <v>98.96192827270183</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M24" t="n">
         <v>115.4839025616399</v>
@@ -32801,25 +32803,25 @@
         <v>106.7151410677083</v>
       </c>
       <c r="O24" t="n">
-        <v>108.4413235634634</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P24" t="n">
-        <v>87.03372251564271</v>
+        <v>106.7316572774653</v>
       </c>
       <c r="Q24" t="n">
-        <v>58.1797386213254</v>
+        <v>71.34728635682278</v>
       </c>
       <c r="R24" t="n">
-        <v>28.29825384563918</v>
+        <v>34.70286509301758</v>
       </c>
       <c r="S24" t="n">
-        <v>8.465887612057205</v>
+        <v>10.38193230212838</v>
       </c>
       <c r="T24" t="n">
-        <v>1.837107606961174</v>
+        <v>2.252891566860916</v>
       </c>
       <c r="U24" t="n">
-        <v>0.02998543428119438</v>
+        <v>0.03677189717400846</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3821094685450561</v>
+        <v>0.4685905148075829</v>
       </c>
       <c r="H25" t="n">
-        <v>3.397300547609683</v>
+        <v>4.166195668016512</v>
       </c>
       <c r="I25" t="n">
-        <v>11.49107383588223</v>
+        <v>14.09179475439532</v>
       </c>
       <c r="J25" t="n">
-        <v>27.01513942613546</v>
+        <v>33.12934939689611</v>
       </c>
       <c r="K25" t="n">
-        <v>44.39417280005287</v>
+        <v>54.44169799309917</v>
       </c>
       <c r="L25" t="n">
-        <v>56.80925680532589</v>
+        <v>69.66662981057466</v>
       </c>
       <c r="M25" t="n">
-        <v>59.89739605565819</v>
+        <v>73.4536931529741</v>
       </c>
       <c r="N25" t="n">
-        <v>58.47316985471758</v>
+        <v>71.70712850687316</v>
       </c>
       <c r="O25" t="n">
-        <v>54.00943651762304</v>
+        <v>66.23313931116638</v>
       </c>
       <c r="P25" t="n">
-        <v>46.21440335930385</v>
+        <v>56.67389280909164</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.99645740698647</v>
+        <v>39.2380657444786</v>
       </c>
       <c r="R25" t="n">
-        <v>17.18103119476224</v>
+        <v>21.06953351125731</v>
       </c>
       <c r="S25" t="n">
-        <v>6.659125920007929</v>
+        <v>8.166254698964874</v>
       </c>
       <c r="T25" t="n">
-        <v>1.632649547419785</v>
+        <v>2.002159472359672</v>
       </c>
       <c r="U25" t="n">
-        <v>0.02084233464791217</v>
+        <v>0.02555948262586819</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.8518475132480001</v>
+        <v>1.044642170973505</v>
       </c>
       <c r="H26" t="n">
-        <v>8.723983345051083</v>
+        <v>10.69844163348241</v>
       </c>
       <c r="I26" t="n">
-        <v>32.84085125449356</v>
+        <v>40.2735672964561</v>
       </c>
       <c r="J26" t="n">
-        <v>72.29949287753251</v>
+        <v>88.66269845866263</v>
       </c>
       <c r="K26" t="n">
-        <v>108.3581981133204</v>
+        <v>132.8824015559711</v>
       </c>
       <c r="L26" t="n">
-        <v>134.4279264468839</v>
+        <v>164.8523693959016</v>
       </c>
       <c r="M26" t="n">
-        <v>149.576969660608</v>
+        <v>183.4300246039516</v>
       </c>
       <c r="N26" t="n">
-        <v>151.9972814076239</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O26" t="n">
-        <v>143.5267226977641</v>
+        <v>176.0104535846123</v>
       </c>
       <c r="P26" t="n">
-        <v>122.4967372144541</v>
+        <v>150.2208499887039</v>
       </c>
       <c r="Q26" t="n">
-        <v>91.98994814626005</v>
+        <v>112.8096022407152</v>
       </c>
       <c r="R26" t="n">
-        <v>53.50986635406474</v>
+        <v>65.62050377241451</v>
       </c>
       <c r="S26" t="n">
-        <v>19.41147520813882</v>
+        <v>23.80478347105878</v>
       </c>
       <c r="T26" t="n">
-        <v>3.728962489243123</v>
+        <v>4.572921103436522</v>
       </c>
       <c r="U26" t="n">
-        <v>0.06814780105984</v>
+        <v>0.08357137367788041</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,22 +33016,22 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.4557786010741544</v>
+        <v>0.5589328370449282</v>
       </c>
       <c r="H27" t="n">
-        <v>4.401861752479334</v>
+        <v>5.39811450514444</v>
       </c>
       <c r="I27" t="n">
-        <v>15.69237727382506</v>
+        <v>19.24395952106442</v>
       </c>
       <c r="J27" t="n">
-        <v>43.0610826567472</v>
+        <v>52.80689580168773</v>
       </c>
       <c r="K27" t="n">
-        <v>73.59824892871555</v>
+        <v>90.25539588369791</v>
       </c>
       <c r="L27" t="n">
-        <v>98.96192827270183</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M27" t="n">
         <v>115.4839025616399</v>
@@ -33038,25 +33040,25 @@
         <v>106.7151410677083</v>
       </c>
       <c r="O27" t="n">
-        <v>108.4413235634634</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P27" t="n">
-        <v>87.03372251564271</v>
+        <v>106.7316572774653</v>
       </c>
       <c r="Q27" t="n">
-        <v>58.1797386213254</v>
+        <v>71.34728635682278</v>
       </c>
       <c r="R27" t="n">
-        <v>28.29825384563918</v>
+        <v>34.70286509301758</v>
       </c>
       <c r="S27" t="n">
-        <v>8.465887612057205</v>
+        <v>10.38193230212838</v>
       </c>
       <c r="T27" t="n">
-        <v>1.837107606961174</v>
+        <v>2.252891566860916</v>
       </c>
       <c r="U27" t="n">
-        <v>0.02998543428119438</v>
+        <v>0.03677189717400846</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.3821094685450561</v>
+        <v>0.4685905148075829</v>
       </c>
       <c r="H28" t="n">
-        <v>3.397300547609683</v>
+        <v>4.166195668016512</v>
       </c>
       <c r="I28" t="n">
-        <v>11.49107383588223</v>
+        <v>14.09179475439532</v>
       </c>
       <c r="J28" t="n">
-        <v>27.01513942613546</v>
+        <v>33.12934939689611</v>
       </c>
       <c r="K28" t="n">
-        <v>44.39417280005287</v>
+        <v>54.44169799309917</v>
       </c>
       <c r="L28" t="n">
-        <v>56.80925680532589</v>
+        <v>69.66662981057466</v>
       </c>
       <c r="M28" t="n">
-        <v>59.89739605565819</v>
+        <v>73.4536931529741</v>
       </c>
       <c r="N28" t="n">
-        <v>58.47316985471758</v>
+        <v>71.70712850687316</v>
       </c>
       <c r="O28" t="n">
-        <v>54.00943651762304</v>
+        <v>66.23313931116638</v>
       </c>
       <c r="P28" t="n">
-        <v>46.21440335930385</v>
+        <v>56.67389280909164</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.99645740698647</v>
+        <v>39.2380657444786</v>
       </c>
       <c r="R28" t="n">
-        <v>17.18103119476224</v>
+        <v>21.06953351125731</v>
       </c>
       <c r="S28" t="n">
-        <v>6.659125920007929</v>
+        <v>8.166254698964874</v>
       </c>
       <c r="T28" t="n">
-        <v>1.632649547419785</v>
+        <v>2.002159472359672</v>
       </c>
       <c r="U28" t="n">
-        <v>0.02084233464791217</v>
+        <v>0.02555948262586819</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.8518475132480001</v>
+        <v>1.044642170973505</v>
       </c>
       <c r="H29" t="n">
-        <v>8.723983345051083</v>
+        <v>10.69844163348241</v>
       </c>
       <c r="I29" t="n">
-        <v>32.84085125449356</v>
+        <v>40.2735672964561</v>
       </c>
       <c r="J29" t="n">
-        <v>72.29949287753251</v>
+        <v>88.66269845866263</v>
       </c>
       <c r="K29" t="n">
-        <v>108.3581981133204</v>
+        <v>132.8824015559711</v>
       </c>
       <c r="L29" t="n">
-        <v>134.4279264468839</v>
+        <v>164.8523693959016</v>
       </c>
       <c r="M29" t="n">
-        <v>149.576969660608</v>
+        <v>183.4300246039516</v>
       </c>
       <c r="N29" t="n">
-        <v>151.9972814076239</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O29" t="n">
-        <v>143.5267226977641</v>
+        <v>176.0104535846123</v>
       </c>
       <c r="P29" t="n">
-        <v>122.4967372144541</v>
+        <v>150.2208499887039</v>
       </c>
       <c r="Q29" t="n">
-        <v>91.98994814626005</v>
+        <v>112.8096022407152</v>
       </c>
       <c r="R29" t="n">
-        <v>53.50986635406474</v>
+        <v>65.62050377241451</v>
       </c>
       <c r="S29" t="n">
-        <v>19.41147520813882</v>
+        <v>23.80478347105878</v>
       </c>
       <c r="T29" t="n">
-        <v>3.728962489243123</v>
+        <v>4.572921103436522</v>
       </c>
       <c r="U29" t="n">
-        <v>0.06814780105984</v>
+        <v>0.08357137367788041</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,22 +33253,22 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.4557786010741544</v>
+        <v>0.5589328370449282</v>
       </c>
       <c r="H30" t="n">
-        <v>4.401861752479334</v>
+        <v>5.39811450514444</v>
       </c>
       <c r="I30" t="n">
-        <v>15.69237727382506</v>
+        <v>19.24395952106442</v>
       </c>
       <c r="J30" t="n">
-        <v>43.0610826567472</v>
+        <v>52.80689580168773</v>
       </c>
       <c r="K30" t="n">
-        <v>73.59824892871555</v>
+        <v>90.25539588369791</v>
       </c>
       <c r="L30" t="n">
-        <v>98.96192827270183</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M30" t="n">
         <v>115.4839025616399</v>
@@ -33275,25 +33277,25 @@
         <v>106.7151410677083</v>
       </c>
       <c r="O30" t="n">
-        <v>108.4413235634634</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P30" t="n">
-        <v>87.03372251564271</v>
+        <v>106.7316572774653</v>
       </c>
       <c r="Q30" t="n">
-        <v>58.1797386213254</v>
+        <v>71.34728635682278</v>
       </c>
       <c r="R30" t="n">
-        <v>28.29825384563918</v>
+        <v>34.70286509301758</v>
       </c>
       <c r="S30" t="n">
-        <v>8.465887612057205</v>
+        <v>10.38193230212838</v>
       </c>
       <c r="T30" t="n">
-        <v>1.837107606961174</v>
+        <v>2.252891566860916</v>
       </c>
       <c r="U30" t="n">
-        <v>0.02998543428119438</v>
+        <v>0.03677189717400846</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.3821094685450561</v>
+        <v>0.4685905148075829</v>
       </c>
       <c r="H31" t="n">
-        <v>3.397300547609683</v>
+        <v>4.166195668016512</v>
       </c>
       <c r="I31" t="n">
-        <v>11.49107383588223</v>
+        <v>14.09179475439532</v>
       </c>
       <c r="J31" t="n">
-        <v>27.01513942613546</v>
+        <v>33.12934939689611</v>
       </c>
       <c r="K31" t="n">
-        <v>44.39417280005287</v>
+        <v>54.44169799309917</v>
       </c>
       <c r="L31" t="n">
-        <v>56.80925680532589</v>
+        <v>69.66662981057466</v>
       </c>
       <c r="M31" t="n">
-        <v>59.89739605565819</v>
+        <v>73.4536931529741</v>
       </c>
       <c r="N31" t="n">
-        <v>58.47316985471758</v>
+        <v>71.70712850687316</v>
       </c>
       <c r="O31" t="n">
-        <v>54.00943651762304</v>
+        <v>66.23313931116638</v>
       </c>
       <c r="P31" t="n">
-        <v>46.21440335930385</v>
+        <v>56.67389280909164</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.99645740698647</v>
+        <v>39.2380657444786</v>
       </c>
       <c r="R31" t="n">
-        <v>17.18103119476224</v>
+        <v>21.06953351125731</v>
       </c>
       <c r="S31" t="n">
-        <v>6.659125920007929</v>
+        <v>8.166254698964874</v>
       </c>
       <c r="T31" t="n">
-        <v>1.632649547419785</v>
+        <v>2.002159472359672</v>
       </c>
       <c r="U31" t="n">
-        <v>0.02084233464791217</v>
+        <v>0.02555948262586819</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.8518475132480001</v>
+        <v>1.044642170973505</v>
       </c>
       <c r="H32" t="n">
-        <v>8.723983345051083</v>
+        <v>10.69844163348241</v>
       </c>
       <c r="I32" t="n">
-        <v>32.84085125449356</v>
+        <v>40.2735672964561</v>
       </c>
       <c r="J32" t="n">
-        <v>72.29949287753251</v>
+        <v>88.66269845866263</v>
       </c>
       <c r="K32" t="n">
-        <v>108.3581981133204</v>
+        <v>132.8824015559711</v>
       </c>
       <c r="L32" t="n">
-        <v>134.4279264468839</v>
+        <v>164.8523693959016</v>
       </c>
       <c r="M32" t="n">
-        <v>149.576969660608</v>
+        <v>183.4300246039516</v>
       </c>
       <c r="N32" t="n">
-        <v>151.9972814076239</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O32" t="n">
-        <v>143.5267226977641</v>
+        <v>176.0104535846123</v>
       </c>
       <c r="P32" t="n">
-        <v>122.4967372144541</v>
+        <v>150.2208499887039</v>
       </c>
       <c r="Q32" t="n">
-        <v>91.98994814626005</v>
+        <v>112.8096022407152</v>
       </c>
       <c r="R32" t="n">
-        <v>53.50986635406474</v>
+        <v>65.62050377241451</v>
       </c>
       <c r="S32" t="n">
-        <v>19.41147520813882</v>
+        <v>23.80478347105878</v>
       </c>
       <c r="T32" t="n">
-        <v>3.728962489243123</v>
+        <v>4.572921103436522</v>
       </c>
       <c r="U32" t="n">
-        <v>0.06814780105984</v>
+        <v>0.08357137367788041</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,22 +33490,22 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.4557786010741544</v>
+        <v>0.5589328370449282</v>
       </c>
       <c r="H33" t="n">
-        <v>4.401861752479334</v>
+        <v>5.39811450514444</v>
       </c>
       <c r="I33" t="n">
-        <v>15.69237727382506</v>
+        <v>19.24395952106442</v>
       </c>
       <c r="J33" t="n">
-        <v>43.0610826567472</v>
+        <v>52.80689580168773</v>
       </c>
       <c r="K33" t="n">
-        <v>73.59824892871555</v>
+        <v>90.25539588369791</v>
       </c>
       <c r="L33" t="n">
-        <v>98.96192827270183</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M33" t="n">
         <v>115.4839025616399</v>
@@ -33512,25 +33514,25 @@
         <v>106.7151410677083</v>
       </c>
       <c r="O33" t="n">
-        <v>108.4413235634634</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P33" t="n">
-        <v>87.03372251564271</v>
+        <v>106.7316572774653</v>
       </c>
       <c r="Q33" t="n">
-        <v>58.1797386213254</v>
+        <v>71.34728635682278</v>
       </c>
       <c r="R33" t="n">
-        <v>28.29825384563918</v>
+        <v>34.70286509301758</v>
       </c>
       <c r="S33" t="n">
-        <v>8.465887612057205</v>
+        <v>10.38193230212838</v>
       </c>
       <c r="T33" t="n">
-        <v>1.837107606961174</v>
+        <v>2.252891566860916</v>
       </c>
       <c r="U33" t="n">
-        <v>0.02998543428119438</v>
+        <v>0.03677189717400846</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.3821094685450561</v>
+        <v>0.4685905148075829</v>
       </c>
       <c r="H34" t="n">
-        <v>3.397300547609683</v>
+        <v>4.166195668016512</v>
       </c>
       <c r="I34" t="n">
-        <v>11.49107383588223</v>
+        <v>14.09179475439532</v>
       </c>
       <c r="J34" t="n">
-        <v>27.01513942613546</v>
+        <v>33.12934939689611</v>
       </c>
       <c r="K34" t="n">
-        <v>44.39417280005287</v>
+        <v>54.44169799309917</v>
       </c>
       <c r="L34" t="n">
-        <v>56.80925680532589</v>
+        <v>69.66662981057466</v>
       </c>
       <c r="M34" t="n">
-        <v>59.89739605565819</v>
+        <v>73.4536931529741</v>
       </c>
       <c r="N34" t="n">
-        <v>58.47316985471758</v>
+        <v>71.70712850687316</v>
       </c>
       <c r="O34" t="n">
-        <v>54.00943651762304</v>
+        <v>66.23313931116638</v>
       </c>
       <c r="P34" t="n">
-        <v>46.21440335930385</v>
+        <v>56.67389280909164</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.99645740698647</v>
+        <v>39.2380657444786</v>
       </c>
       <c r="R34" t="n">
-        <v>17.18103119476224</v>
+        <v>21.06953351125731</v>
       </c>
       <c r="S34" t="n">
-        <v>6.659125920007929</v>
+        <v>8.166254698964874</v>
       </c>
       <c r="T34" t="n">
-        <v>1.632649547419785</v>
+        <v>2.002159472359672</v>
       </c>
       <c r="U34" t="n">
-        <v>0.02084233464791217</v>
+        <v>0.02555948262586819</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.8518475132480001</v>
+        <v>1.044642170973505</v>
       </c>
       <c r="H35" t="n">
-        <v>8.723983345051083</v>
+        <v>10.69844163348241</v>
       </c>
       <c r="I35" t="n">
-        <v>32.84085125449356</v>
+        <v>40.2735672964561</v>
       </c>
       <c r="J35" t="n">
-        <v>72.29949287753251</v>
+        <v>88.66269845866263</v>
       </c>
       <c r="K35" t="n">
-        <v>108.3581981133204</v>
+        <v>132.8824015559711</v>
       </c>
       <c r="L35" t="n">
-        <v>134.4279264468839</v>
+        <v>164.8523693959016</v>
       </c>
       <c r="M35" t="n">
-        <v>149.576969660608</v>
+        <v>183.4300246039516</v>
       </c>
       <c r="N35" t="n">
-        <v>151.9972814076239</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O35" t="n">
-        <v>143.5267226977641</v>
+        <v>176.0104535846123</v>
       </c>
       <c r="P35" t="n">
-        <v>122.4967372144541</v>
+        <v>150.2208499887039</v>
       </c>
       <c r="Q35" t="n">
-        <v>91.98994814626005</v>
+        <v>112.8096022407152</v>
       </c>
       <c r="R35" t="n">
-        <v>53.50986635406474</v>
+        <v>65.62050377241451</v>
       </c>
       <c r="S35" t="n">
-        <v>19.41147520813882</v>
+        <v>23.80478347105878</v>
       </c>
       <c r="T35" t="n">
-        <v>3.728962489243123</v>
+        <v>4.572921103436522</v>
       </c>
       <c r="U35" t="n">
-        <v>0.06814780105984</v>
+        <v>0.08357137367788041</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,22 +33727,22 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.4557786010741544</v>
+        <v>0.5589328370449282</v>
       </c>
       <c r="H36" t="n">
-        <v>4.401861752479334</v>
+        <v>5.39811450514444</v>
       </c>
       <c r="I36" t="n">
-        <v>15.69237727382506</v>
+        <v>19.24395952106442</v>
       </c>
       <c r="J36" t="n">
-        <v>43.0610826567472</v>
+        <v>52.80689580168773</v>
       </c>
       <c r="K36" t="n">
-        <v>73.59824892871555</v>
+        <v>90.25539588369791</v>
       </c>
       <c r="L36" t="n">
-        <v>98.96192827270183</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M36" t="n">
         <v>115.4839025616399</v>
@@ -33749,25 +33751,25 @@
         <v>106.7151410677083</v>
       </c>
       <c r="O36" t="n">
-        <v>108.4413235634634</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P36" t="n">
-        <v>87.03372251564271</v>
+        <v>106.7316572774653</v>
       </c>
       <c r="Q36" t="n">
-        <v>58.1797386213254</v>
+        <v>71.34728635682278</v>
       </c>
       <c r="R36" t="n">
-        <v>28.29825384563918</v>
+        <v>34.70286509301758</v>
       </c>
       <c r="S36" t="n">
-        <v>8.465887612057205</v>
+        <v>10.38193230212838</v>
       </c>
       <c r="T36" t="n">
-        <v>1.837107606961174</v>
+        <v>2.252891566860916</v>
       </c>
       <c r="U36" t="n">
-        <v>0.02998543428119438</v>
+        <v>0.03677189717400846</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.3821094685450561</v>
+        <v>0.4685905148075829</v>
       </c>
       <c r="H37" t="n">
-        <v>3.397300547609683</v>
+        <v>4.166195668016512</v>
       </c>
       <c r="I37" t="n">
-        <v>11.49107383588223</v>
+        <v>14.09179475439532</v>
       </c>
       <c r="J37" t="n">
-        <v>27.01513942613546</v>
+        <v>33.12934939689611</v>
       </c>
       <c r="K37" t="n">
-        <v>44.39417280005287</v>
+        <v>54.44169799309917</v>
       </c>
       <c r="L37" t="n">
-        <v>56.80925680532589</v>
+        <v>69.66662981057466</v>
       </c>
       <c r="M37" t="n">
-        <v>59.89739605565819</v>
+        <v>73.4536931529741</v>
       </c>
       <c r="N37" t="n">
-        <v>58.47316985471758</v>
+        <v>71.70712850687316</v>
       </c>
       <c r="O37" t="n">
-        <v>54.00943651762304</v>
+        <v>66.23313931116638</v>
       </c>
       <c r="P37" t="n">
-        <v>46.21440335930385</v>
+        <v>56.67389280909164</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.99645740698647</v>
+        <v>39.2380657444786</v>
       </c>
       <c r="R37" t="n">
-        <v>17.18103119476224</v>
+        <v>21.06953351125731</v>
       </c>
       <c r="S37" t="n">
-        <v>6.659125920007929</v>
+        <v>8.166254698964874</v>
       </c>
       <c r="T37" t="n">
-        <v>1.632649547419785</v>
+        <v>2.002159472359672</v>
       </c>
       <c r="U37" t="n">
-        <v>0.02084233464791217</v>
+        <v>0.02555948262586819</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8518475132480001</v>
+        <v>1.044642170973505</v>
       </c>
       <c r="H38" t="n">
-        <v>8.723983345051083</v>
+        <v>10.69844163348241</v>
       </c>
       <c r="I38" t="n">
-        <v>32.84085125449356</v>
+        <v>40.2735672964561</v>
       </c>
       <c r="J38" t="n">
-        <v>72.29949287753251</v>
+        <v>88.66269845866262</v>
       </c>
       <c r="K38" t="n">
-        <v>108.3581981133204</v>
+        <v>132.8824015559711</v>
       </c>
       <c r="L38" t="n">
-        <v>134.4279264468839</v>
+        <v>164.8523693959016</v>
       </c>
       <c r="M38" t="n">
-        <v>149.576969660608</v>
+        <v>183.4300246039516</v>
       </c>
       <c r="N38" t="n">
-        <v>151.9972814076239</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O38" t="n">
-        <v>143.5267226977641</v>
+        <v>176.0104535846123</v>
       </c>
       <c r="P38" t="n">
-        <v>122.4967372144541</v>
+        <v>150.2208499887039</v>
       </c>
       <c r="Q38" t="n">
-        <v>91.98994814626005</v>
+        <v>112.8096022407152</v>
       </c>
       <c r="R38" t="n">
-        <v>53.50986635406474</v>
+        <v>65.62050377241451</v>
       </c>
       <c r="S38" t="n">
-        <v>19.41147520813882</v>
+        <v>23.80478347105877</v>
       </c>
       <c r="T38" t="n">
-        <v>3.728962489243123</v>
+        <v>4.572921103436522</v>
       </c>
       <c r="U38" t="n">
-        <v>0.06814780105984</v>
+        <v>0.0835713736778804</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,22 +33964,22 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.4557786010741544</v>
+        <v>0.5589328370449282</v>
       </c>
       <c r="H39" t="n">
-        <v>4.401861752479334</v>
+        <v>5.39811450514444</v>
       </c>
       <c r="I39" t="n">
-        <v>15.69237727382506</v>
+        <v>19.24395952106442</v>
       </c>
       <c r="J39" t="n">
-        <v>43.0610826567472</v>
+        <v>52.80689580168772</v>
       </c>
       <c r="K39" t="n">
-        <v>73.59824892871555</v>
+        <v>90.25539588369791</v>
       </c>
       <c r="L39" t="n">
-        <v>98.96192827270183</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M39" t="n">
         <v>115.4839025616399</v>
@@ -33986,25 +33988,25 @@
         <v>106.7151410677083</v>
       </c>
       <c r="O39" t="n">
-        <v>108.4413235634634</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P39" t="n">
-        <v>87.03372251564271</v>
+        <v>106.7316572774653</v>
       </c>
       <c r="Q39" t="n">
-        <v>58.1797386213254</v>
+        <v>71.34728635682278</v>
       </c>
       <c r="R39" t="n">
-        <v>28.29825384563918</v>
+        <v>34.70286509301758</v>
       </c>
       <c r="S39" t="n">
-        <v>8.465887612057205</v>
+        <v>10.38193230212837</v>
       </c>
       <c r="T39" t="n">
-        <v>1.837107606961174</v>
+        <v>2.252891566860916</v>
       </c>
       <c r="U39" t="n">
-        <v>0.02998543428119438</v>
+        <v>0.03677189717400845</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.3821094685450561</v>
+        <v>0.4685905148075829</v>
       </c>
       <c r="H40" t="n">
-        <v>3.397300547609683</v>
+        <v>4.166195668016513</v>
       </c>
       <c r="I40" t="n">
-        <v>11.49107383588223</v>
+        <v>14.09179475439532</v>
       </c>
       <c r="J40" t="n">
-        <v>27.01513942613546</v>
+        <v>33.12934939689611</v>
       </c>
       <c r="K40" t="n">
-        <v>44.39417280005287</v>
+        <v>54.44169799309916</v>
       </c>
       <c r="L40" t="n">
-        <v>56.80925680532589</v>
+        <v>69.66662981057465</v>
       </c>
       <c r="M40" t="n">
-        <v>59.89739605565819</v>
+        <v>73.4536931529741</v>
       </c>
       <c r="N40" t="n">
-        <v>58.47316985471758</v>
+        <v>71.70712850687316</v>
       </c>
       <c r="O40" t="n">
-        <v>54.00943651762304</v>
+        <v>66.23313931116638</v>
       </c>
       <c r="P40" t="n">
-        <v>46.21440335930385</v>
+        <v>56.67389280909164</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.99645740698647</v>
+        <v>39.2380657444786</v>
       </c>
       <c r="R40" t="n">
-        <v>17.18103119476224</v>
+        <v>21.06953351125731</v>
       </c>
       <c r="S40" t="n">
-        <v>6.659125920007929</v>
+        <v>8.166254698964872</v>
       </c>
       <c r="T40" t="n">
-        <v>1.632649547419785</v>
+        <v>2.002159472359672</v>
       </c>
       <c r="U40" t="n">
-        <v>0.02084233464791217</v>
+        <v>0.02555948262586819</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.8518475132480001</v>
+        <v>1.044642170973505</v>
       </c>
       <c r="H41" t="n">
-        <v>8.723983345051083</v>
+        <v>10.69844163348241</v>
       </c>
       <c r="I41" t="n">
-        <v>32.84085125449356</v>
+        <v>40.2735672964561</v>
       </c>
       <c r="J41" t="n">
-        <v>72.29949287753251</v>
+        <v>88.66269845866263</v>
       </c>
       <c r="K41" t="n">
-        <v>108.3581981133204</v>
+        <v>132.8824015559711</v>
       </c>
       <c r="L41" t="n">
-        <v>134.4279264468839</v>
+        <v>164.8523693959016</v>
       </c>
       <c r="M41" t="n">
-        <v>149.576969660608</v>
+        <v>183.4300246039516</v>
       </c>
       <c r="N41" t="n">
-        <v>151.9972814076239</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O41" t="n">
-        <v>143.5267226977641</v>
+        <v>176.0104535846123</v>
       </c>
       <c r="P41" t="n">
-        <v>122.4967372144541</v>
+        <v>150.2208499887039</v>
       </c>
       <c r="Q41" t="n">
-        <v>91.98994814626005</v>
+        <v>112.8096022407152</v>
       </c>
       <c r="R41" t="n">
-        <v>53.50986635406474</v>
+        <v>65.62050377241451</v>
       </c>
       <c r="S41" t="n">
-        <v>19.41147520813882</v>
+        <v>23.80478347105878</v>
       </c>
       <c r="T41" t="n">
-        <v>3.728962489243123</v>
+        <v>4.572921103436522</v>
       </c>
       <c r="U41" t="n">
-        <v>0.06814780105984</v>
+        <v>0.08357137367788041</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,22 +34201,22 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.4557786010741544</v>
+        <v>0.5589328370449282</v>
       </c>
       <c r="H42" t="n">
-        <v>4.401861752479334</v>
+        <v>5.39811450514444</v>
       </c>
       <c r="I42" t="n">
-        <v>15.69237727382506</v>
+        <v>19.24395952106442</v>
       </c>
       <c r="J42" t="n">
-        <v>43.0610826567472</v>
+        <v>52.80689580168773</v>
       </c>
       <c r="K42" t="n">
-        <v>73.59824892871555</v>
+        <v>90.25539588369791</v>
       </c>
       <c r="L42" t="n">
-        <v>98.96192827270183</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M42" t="n">
         <v>115.4839025616399</v>
@@ -34223,25 +34225,25 @@
         <v>106.7151410677083</v>
       </c>
       <c r="O42" t="n">
-        <v>108.4413235634634</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P42" t="n">
-        <v>87.03372251564271</v>
+        <v>106.7316572774653</v>
       </c>
       <c r="Q42" t="n">
-        <v>58.1797386213254</v>
+        <v>71.34728635682278</v>
       </c>
       <c r="R42" t="n">
-        <v>28.29825384563918</v>
+        <v>34.70286509301758</v>
       </c>
       <c r="S42" t="n">
-        <v>8.465887612057205</v>
+        <v>10.38193230212838</v>
       </c>
       <c r="T42" t="n">
-        <v>1.837107606961174</v>
+        <v>2.252891566860916</v>
       </c>
       <c r="U42" t="n">
-        <v>0.02998543428119438</v>
+        <v>0.03677189717400846</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.3821094685450561</v>
+        <v>0.4685905148075829</v>
       </c>
       <c r="H43" t="n">
-        <v>3.397300547609683</v>
+        <v>4.166195668016512</v>
       </c>
       <c r="I43" t="n">
-        <v>11.49107383588223</v>
+        <v>14.09179475439532</v>
       </c>
       <c r="J43" t="n">
-        <v>27.01513942613546</v>
+        <v>33.12934939689611</v>
       </c>
       <c r="K43" t="n">
-        <v>44.39417280005287</v>
+        <v>54.44169799309917</v>
       </c>
       <c r="L43" t="n">
-        <v>56.80925680532589</v>
+        <v>69.66662981057466</v>
       </c>
       <c r="M43" t="n">
-        <v>59.89739605565819</v>
+        <v>73.4536931529741</v>
       </c>
       <c r="N43" t="n">
-        <v>58.47316985471758</v>
+        <v>71.70712850687316</v>
       </c>
       <c r="O43" t="n">
-        <v>54.00943651762304</v>
+        <v>66.23313931116638</v>
       </c>
       <c r="P43" t="n">
-        <v>46.21440335930385</v>
+        <v>56.67389280909164</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.99645740698647</v>
+        <v>39.2380657444786</v>
       </c>
       <c r="R43" t="n">
-        <v>17.18103119476224</v>
+        <v>21.06953351125731</v>
       </c>
       <c r="S43" t="n">
-        <v>6.659125920007929</v>
+        <v>8.166254698964874</v>
       </c>
       <c r="T43" t="n">
-        <v>1.632649547419785</v>
+        <v>2.002159472359672</v>
       </c>
       <c r="U43" t="n">
-        <v>0.02084233464791217</v>
+        <v>0.02555948262586819</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8518475132480001</v>
+        <v>1.044642170973505</v>
       </c>
       <c r="H44" t="n">
-        <v>8.723983345051083</v>
+        <v>10.69844163348241</v>
       </c>
       <c r="I44" t="n">
-        <v>32.84085125449356</v>
+        <v>40.2735672964561</v>
       </c>
       <c r="J44" t="n">
-        <v>72.29949287753251</v>
+        <v>88.66269845866263</v>
       </c>
       <c r="K44" t="n">
-        <v>108.3581981133204</v>
+        <v>132.8824015559711</v>
       </c>
       <c r="L44" t="n">
-        <v>134.4279264468839</v>
+        <v>164.8523693959016</v>
       </c>
       <c r="M44" t="n">
-        <v>149.576969660608</v>
+        <v>183.4300246039516</v>
       </c>
       <c r="N44" t="n">
-        <v>151.9972814076239</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O44" t="n">
-        <v>143.5267226977641</v>
+        <v>176.0104535846123</v>
       </c>
       <c r="P44" t="n">
-        <v>122.4967372144541</v>
+        <v>150.2208499887039</v>
       </c>
       <c r="Q44" t="n">
-        <v>91.98994814626005</v>
+        <v>112.8096022407152</v>
       </c>
       <c r="R44" t="n">
-        <v>53.50986635406474</v>
+        <v>65.62050377241451</v>
       </c>
       <c r="S44" t="n">
-        <v>19.41147520813882</v>
+        <v>23.80478347105878</v>
       </c>
       <c r="T44" t="n">
-        <v>3.728962489243123</v>
+        <v>4.572921103436522</v>
       </c>
       <c r="U44" t="n">
-        <v>0.06814780105984</v>
+        <v>0.08357137367788041</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,22 +34438,22 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4557786010741544</v>
+        <v>0.5589328370449282</v>
       </c>
       <c r="H45" t="n">
-        <v>4.401861752479334</v>
+        <v>5.39811450514444</v>
       </c>
       <c r="I45" t="n">
-        <v>15.69237727382506</v>
+        <v>19.24395952106442</v>
       </c>
       <c r="J45" t="n">
-        <v>43.0610826567472</v>
+        <v>52.80689580168773</v>
       </c>
       <c r="K45" t="n">
-        <v>73.59824892871555</v>
+        <v>90.25539588369791</v>
       </c>
       <c r="L45" t="n">
-        <v>98.96192827270183</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M45" t="n">
         <v>115.4839025616399</v>
@@ -34460,25 +34462,25 @@
         <v>106.7151410677083</v>
       </c>
       <c r="O45" t="n">
-        <v>108.4413235634634</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P45" t="n">
-        <v>87.03372251564271</v>
+        <v>106.7316572774653</v>
       </c>
       <c r="Q45" t="n">
-        <v>58.1797386213254</v>
+        <v>71.34728635682278</v>
       </c>
       <c r="R45" t="n">
-        <v>28.29825384563918</v>
+        <v>34.70286509301758</v>
       </c>
       <c r="S45" t="n">
-        <v>8.465887612057205</v>
+        <v>10.38193230212838</v>
       </c>
       <c r="T45" t="n">
-        <v>1.837107606961174</v>
+        <v>2.252891566860916</v>
       </c>
       <c r="U45" t="n">
-        <v>0.02998543428119438</v>
+        <v>0.03677189717400846</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3821094685450561</v>
+        <v>0.4685905148075829</v>
       </c>
       <c r="H46" t="n">
-        <v>3.397300547609683</v>
+        <v>4.166195668016512</v>
       </c>
       <c r="I46" t="n">
-        <v>11.49107383588223</v>
+        <v>14.09179475439532</v>
       </c>
       <c r="J46" t="n">
-        <v>27.01513942613546</v>
+        <v>33.12934939689611</v>
       </c>
       <c r="K46" t="n">
-        <v>44.39417280005287</v>
+        <v>54.44169799309917</v>
       </c>
       <c r="L46" t="n">
-        <v>56.80925680532589</v>
+        <v>69.66662981057466</v>
       </c>
       <c r="M46" t="n">
-        <v>59.89739605565819</v>
+        <v>73.4536931529741</v>
       </c>
       <c r="N46" t="n">
-        <v>58.47316985471758</v>
+        <v>71.70712850687316</v>
       </c>
       <c r="O46" t="n">
-        <v>54.00943651762304</v>
+        <v>66.23313931116638</v>
       </c>
       <c r="P46" t="n">
-        <v>46.21440335930385</v>
+        <v>56.67389280909164</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.99645740698647</v>
+        <v>39.2380657444786</v>
       </c>
       <c r="R46" t="n">
-        <v>17.18103119476224</v>
+        <v>21.06953351125731</v>
       </c>
       <c r="S46" t="n">
-        <v>6.659125920007929</v>
+        <v>8.166254698964874</v>
       </c>
       <c r="T46" t="n">
-        <v>1.632649547419785</v>
+        <v>2.002159472359672</v>
       </c>
       <c r="U46" t="n">
-        <v>0.02084233464791217</v>
+        <v>0.02555948262586819</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_9_9.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_9_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-62922.31362287151</v>
+        <v>-183461.3757065355</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15666083.54271803</v>
+        <v>14833067.19965176</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22284530.63605469</v>
+        <v>21451514.29298845</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3208904.632396991</v>
+        <v>3637587.702565063</v>
       </c>
     </row>
     <row r="11">
@@ -8291,34 +8291,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>13.1634712931604</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>59.17817075471706</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8689,25 +8689,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>58.43709896927</v>
+        <v>58.43709896927001</v>
       </c>
       <c r="K11" t="n">
-        <v>45.94060241807557</v>
+        <v>45.9406024180756</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>26.70784276721304</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>3.726289893207451</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>10.94434319550814</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>37.65595906245261</v>
       </c>
       <c r="Q11" t="n">
         <v>67.81377078227503</v>
@@ -8768,7 +8768,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>50.24867586497896</v>
+        <v>50.24867586497897</v>
       </c>
       <c r="K12" t="n">
         <v>21.74077328296876</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>2.122548746678021</v>
       </c>
       <c r="Q12" t="n">
         <v>42.38790508806972</v>
@@ -8853,16 +8853,16 @@
         <v>50.38157427046082</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>39.92716966793145</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>39.423506304455</v>
       </c>
       <c r="N13" t="n">
         <v>32.0373763711288</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>46.26279818095588</v>
       </c>
       <c r="P13" t="n">
         <v>55.23011048084078</v>
@@ -8932,16 +8932,16 @@
         <v>45.94060241807557</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>26.70784276721304</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>3.726289893207451</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>10.94434319550814</v>
       </c>
       <c r="P14" t="n">
         <v>37.65595906245261</v>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>2.122548746678021</v>
       </c>
       <c r="Q15" t="n">
         <v>42.38790508806972</v>
@@ -9090,16 +9090,16 @@
         <v>50.38157427046082</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>39.92716966793144</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>39.423506304455</v>
       </c>
       <c r="N16" t="n">
         <v>32.0373763711288</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>46.26279818095588</v>
       </c>
       <c r="P16" t="n">
         <v>55.23011048084078</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>58.43709896927</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>45.94060241807557</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>26.70784276721304</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>3.726289893207451</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>10.94434319550814</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>37.65595906245261</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>67.81377078227503</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>50.24867586497896</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>21.74077328296876</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>2.122548746678021</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>42.38790508806972</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>59.17817075471706</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>58.43709896927</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>45.94060241807557</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>26.70784276721304</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>3.726289893207451</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>10.94434319550814</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>37.65595906245261</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>67.81377078227503</v>
       </c>
       <c r="R20" t="n">
         <v>85.43134583487716</v>
@@ -9479,10 +9479,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>50.24867586497896</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>21.74077328296876</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>2.122548746678021</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>42.38790508806972</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>59.17817075471706</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9564,13 +9564,13 @@
         <v>50.38157427046082</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>39.92716966793144</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>39.423506304455</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>32.0373763711288</v>
       </c>
       <c r="O22" t="n">
         <v>46.26279818095588</v>
@@ -9640,25 +9640,25 @@
         <v>58.43709896927</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>45.94060241807557</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>26.70784276721304</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>3.726289893207451</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>10.94434319550814</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>37.65595906245261</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>67.81377078227503</v>
       </c>
       <c r="R23" t="n">
         <v>85.43134583487716</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>2.122548746678021</v>
       </c>
       <c r="Q24" t="n">
         <v>42.38790508806972</v>
@@ -9804,7 +9804,7 @@
         <v>39.92716966793144</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>39.423506304455</v>
       </c>
       <c r="N25" t="n">
         <v>32.0373763711288</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>58.43709896927001</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>45.9406024180756</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>26.70784276721304</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>3.726289893207451</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>10.94434319550814</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>37.65595906245261</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>67.81377078227503</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,10 +9953,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>50.24867586497896</v>
+        <v>50.24867586497897</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>21.74077328296876</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>2.122548746678021</v>
       </c>
       <c r="Q27" t="n">
         <v>42.38790508806972</v>
@@ -10038,7 +10038,7 @@
         <v>50.38157427046082</v>
       </c>
       <c r="L28" t="n">
-        <v>39.92716966793144</v>
+        <v>39.92716966793145</v>
       </c>
       <c r="M28" t="n">
         <v>39.423506304455</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>58.43709896927</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>45.94060241807557</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>26.70784276721304</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>3.726289893207451</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>10.94434319550814</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>37.65595906245261</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>67.81377078227503</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>50.24867586497896</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>21.74077328296876</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>2.122548746678021</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>42.38790508806972</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>59.17817075471706</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>58.43709896927</v>
       </c>
       <c r="K32" t="n">
         <v>45.94060241807557</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>26.70784276721304</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>3.726289893207451</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>10.94434319550814</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>37.65595906245261</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>67.81377078227503</v>
       </c>
       <c r="R32" t="n">
         <v>85.43134583487716</v>
@@ -10424,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>50.24867586497896</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>21.74077328296876</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10445,10 +10445,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>2.122548746678021</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>42.38790508806972</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10509,7 +10509,7 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>50.38157427046082</v>
       </c>
       <c r="L34" t="n">
         <v>39.92716966793144</v>
@@ -10521,10 +10521,10 @@
         <v>32.0373763711288</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>46.26279818095588</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>55.23011048084078</v>
       </c>
       <c r="Q34" t="n">
         <v>83.85974807944615</v>
@@ -10585,25 +10585,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>58.43709896927</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>45.94060241807557</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>26.70784276721304</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>3.726289893207451</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>10.94434319550814</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>37.65595906245261</v>
       </c>
       <c r="Q35" t="n">
         <v>67.81377078227503</v>
@@ -10667,7 +10667,7 @@
         <v>50.24867586497896</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>21.74077328296876</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>2.122548746678021</v>
       </c>
       <c r="Q36" t="n">
         <v>42.38790508806972</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>58.43709896927</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>45.94060241807557</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>26.70784276721304</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>3.726289893207451</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>10.94434319550814</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>37.65595906245261</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>67.81377078227503</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,10 +10901,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>50.24867586497897</v>
+        <v>50.24867586497896</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>21.74077328296876</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>2.122548746678021</v>
       </c>
       <c r="Q39" t="n">
         <v>42.38790508806972</v>
@@ -10986,7 +10986,7 @@
         <v>50.38157427046082</v>
       </c>
       <c r="L40" t="n">
-        <v>39.92716966793145</v>
+        <v>39.92716966793144</v>
       </c>
       <c r="M40" t="n">
         <v>39.423506304455</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>58.43709896927</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>45.94060241807557</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>26.70784276721304</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>3.726289893207451</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>10.94434319550814</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>37.65595906245261</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>67.81377078227503</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>50.24867586497896</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>21.74077328296876</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11156,10 +11156,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>2.122548746678021</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>42.38790508806972</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11232,10 +11232,10 @@
         <v>32.0373763711288</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>46.26279818095588</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>55.23011048084078</v>
       </c>
       <c r="Q43" t="n">
         <v>83.85974807944615</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>58.43709896927</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>45.94060241807557</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>26.70784276721304</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>3.726289893207451</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>10.94434319550814</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>37.65595906245261</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>67.81377078227503</v>
       </c>
       <c r="R44" t="n">
         <v>85.43134583487716</v>
@@ -11372,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>50.24867586497896</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>21.74077328296876</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>2.122548746678021</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>42.38790508806972</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -11457,22 +11457,22 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>50.38157427046082</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>39.92716966793144</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>39.423506304455</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>32.0373763711288</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>46.26279818095588</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>55.23011048084078</v>
       </c>
       <c r="Q46" t="n">
         <v>83.85974807944615</v>
@@ -22883,34 +22883,34 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
-        <v>80.86193375000001</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J6" t="n">
-        <v>103.0555716666667</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>111.9961691666667</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>112.5754335711478</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>115.4839025616399</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>106.7151410677083</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>115.8594486111111</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>108.8542060241433</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>113.7351914448925</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3645969707207</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
         <v>151.2714921173871</v>
@@ -23287,19 +23287,19 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>26.70784276721304</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>3.726289893207451</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>10.94434319550814</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>37.65595906245261</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -23378,7 +23378,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>2.122548746678021</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -23445,16 +23445,16 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>39.92716966793144</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>39.423506304455</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>46.26279818095588</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -23524,16 +23524,16 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>26.70784276721304</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>3.726289893207451</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>10.94434319550814</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -23615,7 +23615,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>2.122548746678021</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -23682,16 +23682,16 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>39.92716966793144</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>39.423506304455</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>46.26279818095588</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -23755,31 +23755,31 @@
         <v>130.8154595068359</v>
       </c>
       <c r="J17" t="n">
-        <v>58.43709896927</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>45.94060241807557</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>26.70784276721304</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>3.726289893207451</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>10.94434319550814</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>37.65595906245261</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>67.81377078227503</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>109.5427457015678</v>
+        <v>24.11139986669068</v>
       </c>
       <c r="S17" t="n">
         <v>161.5519021448908</v>
@@ -23831,13 +23831,13 @@
         <v>93.5403643736245</v>
       </c>
       <c r="I18" t="n">
-        <v>61.61797422893559</v>
+        <v>48.45450293577519</v>
       </c>
       <c r="J18" t="n">
-        <v>50.24867586497896</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>21.74077328296876</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -23852,13 +23852,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>2.122548746678021</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>42.38790508806972</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>83.66173187770315</v>
+        <v>24.48356112298609</v>
       </c>
       <c r="S18" t="n">
         <v>140.8895598152587</v>
@@ -23992,28 +23992,28 @@
         <v>130.8154595068359</v>
       </c>
       <c r="J20" t="n">
-        <v>58.43709896927</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>45.94060241807557</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>26.70784276721304</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>3.726289893207451</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>10.94434319550814</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>37.65595906245261</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>67.81377078227503</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>24.11139986669068</v>
@@ -24071,10 +24071,10 @@
         <v>48.45450293577519</v>
       </c>
       <c r="J21" t="n">
-        <v>50.24867586497896</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>21.74077328296876</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -24089,13 +24089,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>2.122548746678021</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>42.38790508806972</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>83.66173187770315</v>
+        <v>24.48356112298609</v>
       </c>
       <c r="S21" t="n">
         <v>140.8895598152587</v>
@@ -24156,13 +24156,13 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>39.92716966793144</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>39.423506304455</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>32.0373763711288</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -24232,25 +24232,25 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>45.94060241807557</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>26.70784276721304</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>3.726289893207451</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>10.94434319550814</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>37.65595906245261</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>67.81377078227503</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>24.11139986669068</v>
@@ -24326,7 +24326,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>2.122548746678021</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -24396,7 +24396,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>39.423506304455</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -24466,31 +24466,31 @@
         <v>130.8154595068359</v>
       </c>
       <c r="J26" t="n">
-        <v>58.43709896927</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>45.94060241807557</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>26.70784276721304</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>3.726289893207451</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>10.94434319550814</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>37.65595906245261</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>67.81377078227503</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>109.5427457015678</v>
+        <v>24.11139986669068</v>
       </c>
       <c r="S26" t="n">
         <v>161.5519021448908</v>
@@ -24548,7 +24548,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>21.74077328296876</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -24563,7 +24563,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>2.122548746678021</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -24703,31 +24703,31 @@
         <v>130.8154595068359</v>
       </c>
       <c r="J29" t="n">
-        <v>58.43709896927</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>45.94060241807557</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>26.70784276721304</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>3.726289893207451</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>10.94434319550814</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>37.65595906245261</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>67.81377078227503</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>109.5427457015678</v>
+        <v>24.11139986669068</v>
       </c>
       <c r="S29" t="n">
         <v>161.5519021448908</v>
@@ -24779,13 +24779,13 @@
         <v>93.5403643736245</v>
       </c>
       <c r="I30" t="n">
-        <v>61.61797422893559</v>
+        <v>48.45450293577519</v>
       </c>
       <c r="J30" t="n">
-        <v>50.24867586497896</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>21.74077328296876</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -24800,13 +24800,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>2.122548746678021</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>42.38790508806972</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>83.66173187770315</v>
+        <v>24.48356112298609</v>
       </c>
       <c r="S30" t="n">
         <v>140.8895598152587</v>
@@ -24940,28 +24940,28 @@
         <v>130.8154595068359</v>
       </c>
       <c r="J32" t="n">
-        <v>58.43709896927</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>26.70784276721304</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>3.726289893207451</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>10.94434319550814</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>37.65595906245261</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>67.81377078227503</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>24.11139986669068</v>
@@ -25016,13 +25016,13 @@
         <v>93.5403643736245</v>
       </c>
       <c r="I33" t="n">
-        <v>61.61797422893559</v>
+        <v>48.45450293577519</v>
       </c>
       <c r="J33" t="n">
-        <v>50.24867586497896</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>21.74077328296876</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -25037,10 +25037,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>2.122548746678021</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>42.38790508806972</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>24.48356112298609</v>
@@ -25101,7 +25101,7 @@
         <v>26.32731680307289</v>
       </c>
       <c r="K34" t="n">
-        <v>50.38157427046082</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -25113,10 +25113,10 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>46.26279818095588</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>55.23011048084078</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -25177,25 +25177,25 @@
         <v>130.8154595068359</v>
       </c>
       <c r="J35" t="n">
-        <v>58.43709896927</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>45.94060241807557</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>26.70784276721304</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>3.726289893207451</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>10.94434319550814</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>37.65595906245261</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -25259,7 +25259,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>21.74077328296876</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -25274,7 +25274,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>2.122548746678021</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -25414,31 +25414,31 @@
         <v>130.8154595068359</v>
       </c>
       <c r="J38" t="n">
-        <v>58.43709896927001</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>45.9406024180756</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>26.70784276721304</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>3.726289893207451</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>10.94434319550814</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>37.65595906245261</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>67.81377078227503</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>109.5427457015678</v>
+        <v>24.11139986669068</v>
       </c>
       <c r="S38" t="n">
         <v>161.5519021448908</v>
@@ -25496,7 +25496,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>21.74077328296876</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -25511,7 +25511,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>2.122548746678021</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -25651,31 +25651,31 @@
         <v>130.8154595068359</v>
       </c>
       <c r="J41" t="n">
-        <v>58.43709896927</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>45.94060241807557</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>26.70784276721304</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>3.726289893207451</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>10.94434319550814</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>37.65595906245261</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>67.81377078227503</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>109.5427457015678</v>
+        <v>24.11139986669068</v>
       </c>
       <c r="S41" t="n">
         <v>161.5519021448908</v>
@@ -25733,7 +25733,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>21.74077328296876</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -25748,10 +25748,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>2.122548746678021</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>42.38790508806972</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>24.48356112298609</v>
@@ -25824,10 +25824,10 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>46.26279818095588</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>55.23011048084078</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -25888,28 +25888,28 @@
         <v>130.8154595068359</v>
       </c>
       <c r="J44" t="n">
-        <v>58.43709896927</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>45.94060241807557</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>26.70784276721304</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>3.726289893207451</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>10.94434319550814</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>37.65595906245261</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>67.81377078227503</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>24.11139986669068</v>
@@ -25964,13 +25964,13 @@
         <v>93.5403643736245</v>
       </c>
       <c r="I45" t="n">
-        <v>61.61797422893559</v>
+        <v>48.45450293577519</v>
       </c>
       <c r="J45" t="n">
-        <v>50.24867586497896</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>21.74077328296876</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -25985,10 +25985,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>2.122548746678021</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>42.38790508806972</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>24.48356112298609</v>
@@ -26049,22 +26049,22 @@
         <v>26.32731680307289</v>
       </c>
       <c r="K46" t="n">
-        <v>50.38157427046082</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>39.92716966793144</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>39.423506304455</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>32.0373763711288</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>46.26279818095588</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>55.23011048084078</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>246329.6711442083</v>
+        <v>317607.4307414179</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>297137.2520133344</v>
+        <v>313580.0078289088</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>302382.7271107339</v>
+        <v>313580.0078289088</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>252671.6098554833</v>
+        <v>313580.0078289088</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>260870.6277018065</v>
+        <v>313580.0078289088</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>284911.2464761788</v>
+        <v>313580.0078289088</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>264912.994002152</v>
+        <v>313580.0078289088</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>252671.6098554833</v>
+        <v>313580.0078289088</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>268984.0142339647</v>
+        <v>313580.0078289088</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>286260.0387469212</v>
+        <v>313580.0078289088</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>264912.994002152</v>
+        <v>313580.0078289088</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>257505.1092808218</v>
+        <v>313580.0078289088</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>257906.1901186991</v>
+        <v>313580.0078289088</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>40835.24109532517</v>
       </c>
       <c r="C2" t="n">
-        <v>31670.95771854108</v>
+        <v>40835.24109532517</v>
       </c>
       <c r="D2" t="n">
-        <v>40835.24109532517</v>
+        <v>40835.24109532516</v>
       </c>
       <c r="E2" t="n">
-        <v>42685.03093788441</v>
+        <v>44799.09954274397</v>
       </c>
       <c r="F2" t="n">
-        <v>43359.44916469293</v>
+        <v>44799.09954274396</v>
       </c>
       <c r="G2" t="n">
-        <v>36968.01980330356</v>
+        <v>44799.09954274396</v>
       </c>
       <c r="H2" t="n">
-        <v>38022.17924068797</v>
+        <v>44799.09954274396</v>
       </c>
       <c r="I2" t="n">
-        <v>41113.11594025011</v>
+        <v>44799.09954274396</v>
       </c>
       <c r="J2" t="n">
-        <v>38541.91205073238</v>
+        <v>44799.09954274397</v>
       </c>
       <c r="K2" t="n">
-        <v>36968.01980330354</v>
+        <v>44799.09954274396</v>
       </c>
       <c r="L2" t="n">
-        <v>39065.32893767973</v>
+        <v>44799.09954274396</v>
       </c>
       <c r="M2" t="n">
-        <v>41286.53208934556</v>
+        <v>44799.09954274396</v>
       </c>
       <c r="N2" t="n">
-        <v>38541.91205073238</v>
+        <v>44799.09954274396</v>
       </c>
       <c r="O2" t="n">
-        <v>37589.4697294185</v>
+        <v>44799.09954274396</v>
       </c>
       <c r="P2" t="n">
-        <v>37641.03726571702</v>
+        <v>44799.09954274396</v>
       </c>
     </row>
     <row r="3">
@@ -26420,46 +26420,46 @@
         <v>40835.24109532517</v>
       </c>
       <c r="C4" t="n">
-        <v>31670.95771854108</v>
+        <v>40835.24109532517</v>
       </c>
       <c r="D4" t="n">
         <v>40835.24109532517</v>
       </c>
       <c r="E4" t="n">
-        <v>7827.597878784562</v>
+        <v>9941.666483644129</v>
       </c>
       <c r="F4" t="n">
-        <v>8502.016105593089</v>
+        <v>9941.666483644127</v>
       </c>
       <c r="G4" t="n">
-        <v>2110.5867442037</v>
+        <v>9941.666483644127</v>
       </c>
       <c r="H4" t="n">
-        <v>3164.746181588118</v>
+        <v>9941.666483644127</v>
       </c>
       <c r="I4" t="n">
-        <v>6255.682881150276</v>
+        <v>9941.666483644127</v>
       </c>
       <c r="J4" t="n">
-        <v>3684.478991632535</v>
+        <v>9941.666483644129</v>
       </c>
       <c r="K4" t="n">
-        <v>2110.5867442037</v>
+        <v>9941.666483644127</v>
       </c>
       <c r="L4" t="n">
-        <v>4207.895878579893</v>
+        <v>9941.666483644127</v>
       </c>
       <c r="M4" t="n">
-        <v>6429.099030245729</v>
+        <v>9941.666483644127</v>
       </c>
       <c r="N4" t="n">
-        <v>3684.478991632535</v>
+        <v>9941.666483644127</v>
       </c>
       <c r="O4" t="n">
-        <v>2732.036670318648</v>
+        <v>9941.666483644127</v>
       </c>
       <c r="P4" t="n">
-        <v>2783.604206617178</v>
+        <v>9941.666483644127</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-48280.95250176286</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-48280.95250176286</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-48280.95250176286</v>
       </c>
       <c r="E6" t="n">
-        <v>-179575.4779775954</v>
+        <v>-193788.4017629784</v>
       </c>
       <c r="F6" t="n">
-        <v>29192.59972645326</v>
+        <v>14979.67594107026</v>
       </c>
       <c r="G6" t="n">
-        <v>29192.59972645328</v>
+        <v>14979.67594107026</v>
       </c>
       <c r="H6" t="n">
-        <v>29192.59972645327</v>
+        <v>14979.67594107026</v>
       </c>
       <c r="I6" t="n">
-        <v>29192.59972645325</v>
+        <v>14979.67594107026</v>
       </c>
       <c r="J6" t="n">
-        <v>29192.59972645327</v>
+        <v>14979.67594107027</v>
       </c>
       <c r="K6" t="n">
-        <v>29192.59972645326</v>
+        <v>14979.67594107026</v>
       </c>
       <c r="L6" t="n">
-        <v>29192.59972645325</v>
+        <v>14979.67594107026</v>
       </c>
       <c r="M6" t="n">
-        <v>29192.59972645326</v>
+        <v>14979.67594107026</v>
       </c>
       <c r="N6" t="n">
-        <v>29192.59972645327</v>
+        <v>14979.67594107026</v>
       </c>
       <c r="O6" t="n">
-        <v>29192.59972645327</v>
+        <v>14979.67594107026</v>
       </c>
       <c r="P6" t="n">
-        <v>29192.59972645326</v>
+        <v>14979.67594107026</v>
       </c>
     </row>
   </sheetData>
@@ -31761,7 +31761,7 @@
         <v>40.2735672964561</v>
       </c>
       <c r="J11" t="n">
-        <v>88.66269845866263</v>
+        <v>88.66269845866262</v>
       </c>
       <c r="K11" t="n">
         <v>132.8824015559711</v>
@@ -31788,13 +31788,13 @@
         <v>65.62050377241451</v>
       </c>
       <c r="S11" t="n">
-        <v>23.80478347105878</v>
+        <v>23.80478347105877</v>
       </c>
       <c r="T11" t="n">
         <v>4.572921103436522</v>
       </c>
       <c r="U11" t="n">
-        <v>0.08357137367788041</v>
+        <v>0.0835713736778804</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,7 +31840,7 @@
         <v>19.24395952106442</v>
       </c>
       <c r="J12" t="n">
-        <v>52.80689580168773</v>
+        <v>52.80689580168772</v>
       </c>
       <c r="K12" t="n">
         <v>90.25539588369791</v>
@@ -31867,13 +31867,13 @@
         <v>34.70286509301758</v>
       </c>
       <c r="S12" t="n">
-        <v>10.38193230212838</v>
+        <v>10.38193230212837</v>
       </c>
       <c r="T12" t="n">
         <v>2.252891566860916</v>
       </c>
       <c r="U12" t="n">
-        <v>0.03677189717400846</v>
+        <v>0.03677189717400845</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,7 +31913,7 @@
         <v>0.4685905148075829</v>
       </c>
       <c r="H13" t="n">
-        <v>4.166195668016512</v>
+        <v>4.166195668016513</v>
       </c>
       <c r="I13" t="n">
         <v>14.09179475439532</v>
@@ -31922,10 +31922,10 @@
         <v>33.12934939689611</v>
       </c>
       <c r="K13" t="n">
-        <v>54.44169799309917</v>
+        <v>54.44169799309916</v>
       </c>
       <c r="L13" t="n">
-        <v>69.66662981057466</v>
+        <v>69.66662981057465</v>
       </c>
       <c r="M13" t="n">
         <v>73.4536931529741</v>
@@ -31946,7 +31946,7 @@
         <v>21.06953351125731</v>
       </c>
       <c r="S13" t="n">
-        <v>8.166254698964874</v>
+        <v>8.166254698964872</v>
       </c>
       <c r="T13" t="n">
         <v>2.002159472359672</v>
@@ -32946,7 +32946,7 @@
         <v>40.2735672964561</v>
       </c>
       <c r="J26" t="n">
-        <v>88.66269845866263</v>
+        <v>88.66269845866262</v>
       </c>
       <c r="K26" t="n">
         <v>132.8824015559711</v>
@@ -32973,13 +32973,13 @@
         <v>65.62050377241451</v>
       </c>
       <c r="S26" t="n">
-        <v>23.80478347105878</v>
+        <v>23.80478347105877</v>
       </c>
       <c r="T26" t="n">
         <v>4.572921103436522</v>
       </c>
       <c r="U26" t="n">
-        <v>0.08357137367788041</v>
+        <v>0.0835713736778804</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33025,7 +33025,7 @@
         <v>19.24395952106442</v>
       </c>
       <c r="J27" t="n">
-        <v>52.80689580168773</v>
+        <v>52.80689580168772</v>
       </c>
       <c r="K27" t="n">
         <v>90.25539588369791</v>
@@ -33052,13 +33052,13 @@
         <v>34.70286509301758</v>
       </c>
       <c r="S27" t="n">
-        <v>10.38193230212838</v>
+        <v>10.38193230212837</v>
       </c>
       <c r="T27" t="n">
         <v>2.252891566860916</v>
       </c>
       <c r="U27" t="n">
-        <v>0.03677189717400846</v>
+        <v>0.03677189717400845</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,7 +33098,7 @@
         <v>0.4685905148075829</v>
       </c>
       <c r="H28" t="n">
-        <v>4.166195668016512</v>
+        <v>4.166195668016513</v>
       </c>
       <c r="I28" t="n">
         <v>14.09179475439532</v>
@@ -33107,10 +33107,10 @@
         <v>33.12934939689611</v>
       </c>
       <c r="K28" t="n">
-        <v>54.44169799309917</v>
+        <v>54.44169799309916</v>
       </c>
       <c r="L28" t="n">
-        <v>69.66662981057466</v>
+        <v>69.66662981057465</v>
       </c>
       <c r="M28" t="n">
         <v>73.4536931529741</v>
@@ -33131,7 +33131,7 @@
         <v>21.06953351125731</v>
       </c>
       <c r="S28" t="n">
-        <v>8.166254698964874</v>
+        <v>8.166254698964872</v>
       </c>
       <c r="T28" t="n">
         <v>2.002159472359672</v>
@@ -33894,7 +33894,7 @@
         <v>40.2735672964561</v>
       </c>
       <c r="J38" t="n">
-        <v>88.66269845866262</v>
+        <v>88.66269845866263</v>
       </c>
       <c r="K38" t="n">
         <v>132.8824015559711</v>
@@ -33921,13 +33921,13 @@
         <v>65.62050377241451</v>
       </c>
       <c r="S38" t="n">
-        <v>23.80478347105877</v>
+        <v>23.80478347105878</v>
       </c>
       <c r="T38" t="n">
         <v>4.572921103436522</v>
       </c>
       <c r="U38" t="n">
-        <v>0.0835713736778804</v>
+        <v>0.08357137367788041</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33973,7 +33973,7 @@
         <v>19.24395952106442</v>
       </c>
       <c r="J39" t="n">
-        <v>52.80689580168772</v>
+        <v>52.80689580168773</v>
       </c>
       <c r="K39" t="n">
         <v>90.25539588369791</v>
@@ -34000,13 +34000,13 @@
         <v>34.70286509301758</v>
       </c>
       <c r="S39" t="n">
-        <v>10.38193230212837</v>
+        <v>10.38193230212838</v>
       </c>
       <c r="T39" t="n">
         <v>2.252891566860916</v>
       </c>
       <c r="U39" t="n">
-        <v>0.03677189717400845</v>
+        <v>0.03677189717400846</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,7 +34046,7 @@
         <v>0.4685905148075829</v>
       </c>
       <c r="H40" t="n">
-        <v>4.166195668016513</v>
+        <v>4.166195668016512</v>
       </c>
       <c r="I40" t="n">
         <v>14.09179475439532</v>
@@ -34055,10 +34055,10 @@
         <v>33.12934939689611</v>
       </c>
       <c r="K40" t="n">
-        <v>54.44169799309916</v>
+        <v>54.44169799309917</v>
       </c>
       <c r="L40" t="n">
-        <v>69.66662981057465</v>
+        <v>69.66662981057466</v>
       </c>
       <c r="M40" t="n">
         <v>73.4536931529741</v>
@@ -34079,7 +34079,7 @@
         <v>21.06953351125731</v>
       </c>
       <c r="S40" t="n">
-        <v>8.166254698964872</v>
+        <v>8.166254698964874</v>
       </c>
       <c r="T40" t="n">
         <v>2.002159472359672</v>
